--- a/resources/files/Список студентов АСУ 121+122 (ua+f).xlsx
+++ b/resources/files/Список студентов АСУ 121+122 (ua+f).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ProBook\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Satosen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3203EAF-BC50-431B-8B4F-1C9BE9405169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92015C7-3AE0-4AD7-B6F2-C9B43B054569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D3EEBEA5-263F-41FD-9D8B-DD740DC9E057}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{D3EEBEA5-263F-41FD-9D8B-DD740DC9E057}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3409" uniqueCount="3274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3231" uniqueCount="3140">
   <si>
     <t>Список студентів кафедри Програмна інженерія та інтелектуальні технології управління ім. А.В. ДАБАГЯНА</t>
   </si>
@@ -9451,408 +9451,6 @@
   </si>
   <si>
     <t>Bahar_Berra.Uyar@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-421dіа - курс 2</t>
-  </si>
-  <si>
-    <t>КН-421dіа.e - курс 2</t>
-  </si>
-  <si>
-    <t>КН-422іа - курс 2</t>
-  </si>
-  <si>
-    <t>ЕНХБААТАР ДАМБА-ОЧІР</t>
-  </si>
-  <si>
-    <t>Damba-Ochir.Enkhbaatar@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>Монголія</t>
-  </si>
-  <si>
-    <t>КН-220dіа.е - курс 3</t>
-  </si>
-  <si>
-    <t>КН-220dіб.е - курс 3</t>
-  </si>
-  <si>
-    <t>КН-221іа - курс 3</t>
-  </si>
-  <si>
-    <t>КН-221іа.е - курс 3</t>
-  </si>
-  <si>
-    <t>БАЙКУЛЕР АЛІ</t>
-  </si>
-  <si>
-    <t>Ali.Baykuler@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ГЬОЙДЖЕ АЛІ ФУАТ</t>
-  </si>
-  <si>
-    <t>Ali_Fuat.Goyce@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ДУР АХМЕТ ЕНЕС</t>
-  </si>
-  <si>
-    <t>Ahmet_Enes.Dur@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЇЛДИРИМ НІЗАМІ ЯГИЗ</t>
-  </si>
-  <si>
-    <t>Nizami_Yagiz.Yildirim@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КАРАДЖАН ІБРАХІМ ЧАГТЮРК</t>
-  </si>
-  <si>
-    <t>ibrahim_cagturk.karacan@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КАРТОПУ МЕРТ</t>
-  </si>
-  <si>
-    <t>Mert.Kartopu@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>МЕЛЕКОГЛУ ЕМРЕ</t>
-  </si>
-  <si>
-    <t>Emre.Melekoglu@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>СОЙСАЛ МЕТІН ДЖАН</t>
-  </si>
-  <si>
-    <t>metin_can.soysal@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ТАНЕР БЕРК</t>
-  </si>
-  <si>
-    <t>berk.taner@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>УВЕР БАТУХАН</t>
-  </si>
-  <si>
-    <t>Batuhan.Uver@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЯВУЗ ЯГИЗДЖАН</t>
-  </si>
-  <si>
-    <t>yagizcan.yavuz@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-221іб.е - курс 3</t>
-  </si>
-  <si>
-    <t>ГЕДІК ЕРЕН ДЕНІЗ</t>
-  </si>
-  <si>
-    <t>eren_deniz.gedik@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЇЛДИЗ ФАТІХДЖАН</t>
-  </si>
-  <si>
-    <t>yildiz.fatihcan@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ХІРУМА ТОКІЯ</t>
-  </si>
-  <si>
-    <t>tokiya.hiruma@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>Японія</t>
-  </si>
-  <si>
-    <t>КН-221ів.е - курс 3</t>
-  </si>
-  <si>
-    <t>СЕВЕР ЕНГІН</t>
-  </si>
-  <si>
-    <t>engin.sever@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ТЮЗЮН ЕГЕ</t>
-  </si>
-  <si>
-    <t>ege.tuzun@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-221іг.е - курс 3</t>
-  </si>
-  <si>
-    <t>АВДЖИ СЕЛІМ</t>
-  </si>
-  <si>
-    <t>Selim.Avci@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ДЕМІРДЖІ ЕМІР</t>
-  </si>
-  <si>
-    <t>Emir.Demirci@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЧЕЛІК АХМЕТ</t>
-  </si>
-  <si>
-    <t>Ahmet.Celik@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-420dіб - курс 3</t>
-  </si>
-  <si>
-    <t>АГАЄВ САМІГ</t>
-  </si>
-  <si>
-    <t>samig.agaev@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>Азербайджан</t>
-  </si>
-  <si>
-    <t>АЛІЄВ КАМАЛ</t>
-  </si>
-  <si>
-    <t>kamal.aliyev@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-420dіб.е - курс 3</t>
-  </si>
-  <si>
-    <t>КН-421іа - курс 3</t>
-  </si>
-  <si>
-    <t>КН-421іа.е - курс 3</t>
-  </si>
-  <si>
-    <t>КН-219dіа.е - курс 4</t>
-  </si>
-  <si>
-    <t>КН-220іа.е - курс 4</t>
-  </si>
-  <si>
-    <t>КН-220іб - курс 4</t>
-  </si>
-  <si>
-    <t>КН-220іб.е - курс 4</t>
-  </si>
-  <si>
-    <t>АКПИНАР ДЕНІЗ</t>
-  </si>
-  <si>
-    <t>deniz.akpinar@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ДЕМІРАЛ ФУРКАН БОРА</t>
-  </si>
-  <si>
-    <t>furkan_bora.demiral@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЗАГХАР АДНАН</t>
-  </si>
-  <si>
-    <t>adnane.zaghar@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>Марокко</t>
-  </si>
-  <si>
-    <t>ЗАГХАР ЗАКАРІА</t>
-  </si>
-  <si>
-    <t>zaghar.zakaria@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЇЛДИРИМ АТА</t>
-  </si>
-  <si>
-    <t>ata.yildirim@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ОЗТЕП КААН БЕДІРХАН</t>
-  </si>
-  <si>
-    <t>Kaan_Bedirhan.Oztep@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ПАК МЕХМЕТ</t>
-  </si>
-  <si>
-    <t>mehmet.pak@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>СЕЙМЕН ТЕММУЗ ДЖАН</t>
-  </si>
-  <si>
-    <t>temmuz_can.seymen@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЧАГЛАР ЮСУФ КААН</t>
-  </si>
-  <si>
-    <t>yusuf_kaan.caglar@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЧЕЙХ АМІН</t>
-  </si>
-  <si>
-    <t>amine.cheikh@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-220ів.е - курс 4</t>
-  </si>
-  <si>
-    <t>АКЧАЕР ЕРАЙ</t>
-  </si>
-  <si>
-    <t>eray.akcaer@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ВАПУР БУГРА</t>
-  </si>
-  <si>
-    <t>bugra.vapur@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ГЮРЕЛЬ ЕГЕ</t>
-  </si>
-  <si>
-    <t>ehe.hiurel@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЕРБАЙ ШІЯР ДЕНІЗ</t>
-  </si>
-  <si>
-    <t>shyar_deniz.erbay@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЗЕІН АХМЕД ТАРЕК АБДЕЛХАЛІМ</t>
-  </si>
-  <si>
-    <t>tarek_abdelhalim_zein.ahmed@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>Єгипет</t>
-  </si>
-  <si>
-    <t>ІССА АЛІ ЮССЕФ АБУЕЛІАЗЕІД</t>
-  </si>
-  <si>
-    <t>youssef_abouelyzeid_issa.ali@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ІШЛЕР УМІТ АРДА</t>
-  </si>
-  <si>
-    <t>umit_arda.isler@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>МАЛКОЧ ФУРКАН</t>
-  </si>
-  <si>
-    <t>FURKAN.MALKOC@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ОЗТЮРК ІСЛАМ ОЗЕР</t>
-  </si>
-  <si>
-    <t>islam_ozer.ozturk@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>УРАЛ МЕРІЧ</t>
-  </si>
-  <si>
-    <t>meric.ural@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>УСТА АХМЕТ</t>
-  </si>
-  <si>
-    <t>ahmet.usta@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-419dі.е - курс 4</t>
-  </si>
-  <si>
-    <t>ОДУНТАН ТОЛУВАНІ ОЛУВАТОБІ</t>
-  </si>
-  <si>
-    <t>toluwanioduntan@gmail.com</t>
-  </si>
-  <si>
-    <t>КН-420іа.е - курс 4</t>
-  </si>
-  <si>
-    <t>ДУРДУ БЕРКАЙ ЇГІТ</t>
-  </si>
-  <si>
-    <t>berkay_yigit.durdu@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-420іб - курс 4</t>
-  </si>
-  <si>
-    <t>КН-420іб.е - курс 4</t>
-  </si>
-  <si>
-    <t>ДУАНЬ ТІНТІН</t>
-  </si>
-  <si>
-    <t>tingting.duan@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>Китай</t>
-  </si>
-  <si>
-    <t>КН-М223іа.е - курс 5</t>
-  </si>
-  <si>
-    <t>СЯ ЦЗУНЦІН</t>
-  </si>
-  <si>
-    <t>ZONGQING.XIA@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ФЕН ЧЖИЦІНЬ</t>
-  </si>
-  <si>
-    <t>ZHIQIN.FENG@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЧЕНЬ ВЕЙЦУН</t>
-  </si>
-  <si>
-    <t>WEICONG.CHEN@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>ЧЖОУ ГАН</t>
-  </si>
-  <si>
-    <t>GANG.ZHOU@cs.khpi.edu.ua</t>
-  </si>
-  <si>
-    <t>КН-218іа.е - курс 6</t>
-  </si>
-  <si>
-    <t>КН-218іб.е - курс 6</t>
-  </si>
-  <si>
-    <t>КН-218ів - курс 6</t>
-  </si>
-  <si>
-    <t>КН-М222іа.е - курс 6</t>
   </si>
 </sst>
 </file>
@@ -9985,7 +9583,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -10001,9 +9599,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -10041,7 +9639,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -10147,7 +9745,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -10299,18 +9897,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E308E8-D59D-48AE-A7F7-51BB08E9A216}">
   <dimension ref="A1:E867"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
+    <sheetView topLeftCell="A688" workbookViewId="0">
       <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="303.60000000000002" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="313.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -10319,7 +9923,7 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -10332,7 +9936,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -10349,7 +9953,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -10358,7 +9962,7 @@
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -10375,7 +9979,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -10384,7 +9988,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
-    <row r="8" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -10401,7 +10005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -10418,7 +10022,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>3</v>
       </c>
@@ -10435,7 +10039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>4</v>
       </c>
@@ -10452,7 +10056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
@@ -10469,7 +10073,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>6</v>
       </c>
@@ -10486,7 +10090,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>7</v>
       </c>
@@ -10503,7 +10107,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>8</v>
       </c>
@@ -10520,7 +10124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>9</v>
       </c>
@@ -10537,7 +10141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -10554,7 +10158,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>11</v>
       </c>
@@ -10571,7 +10175,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>12</v>
       </c>
@@ -10588,7 +10192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>13</v>
       </c>
@@ -10605,7 +10209,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>14</v>
       </c>
@@ -10622,7 +10226,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>15</v>
       </c>
@@ -10639,7 +10243,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>16</v>
       </c>
@@ -10656,7 +10260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>17</v>
       </c>
@@ -10673,7 +10277,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>18</v>
       </c>
@@ -10690,7 +10294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>19</v>
       </c>
@@ -10707,7 +10311,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>20</v>
       </c>
@@ -10724,7 +10328,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>21</v>
       </c>
@@ -10741,7 +10345,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>22</v>
       </c>
@@ -10758,7 +10362,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>23</v>
       </c>
@@ -10775,7 +10379,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>24</v>
       </c>
@@ -10792,7 +10396,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>25</v>
       </c>
@@ -10809,7 +10413,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>26</v>
       </c>
@@ -10826,7 +10430,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>27</v>
       </c>
@@ -10843,7 +10447,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>28</v>
       </c>
@@ -10860,7 +10464,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>29</v>
       </c>
@@ -10877,7 +10481,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>130</v>
       </c>
@@ -10886,7 +10490,7 @@
       <c r="D37" s="5"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -10903,7 +10507,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>2</v>
       </c>
@@ -10920,7 +10524,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>3</v>
       </c>
@@ -10937,7 +10541,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -10954,7 +10558,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>5</v>
       </c>
@@ -10971,7 +10575,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>6</v>
       </c>
@@ -10988,7 +10592,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>7</v>
       </c>
@@ -11005,7 +10609,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>159</v>
       </c>
@@ -11014,7 +10618,7 @@
       <c r="D45" s="5"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -11031,7 +10635,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>2</v>
       </c>
@@ -11048,7 +10652,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>3</v>
       </c>
@@ -11065,7 +10669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>4</v>
       </c>
@@ -11082,7 +10686,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>5</v>
       </c>
@@ -11099,7 +10703,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>6</v>
       </c>
@@ -11116,7 +10720,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>7</v>
       </c>
@@ -11133,7 +10737,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>8</v>
       </c>
@@ -11150,7 +10754,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>9</v>
       </c>
@@ -11167,7 +10771,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>10</v>
       </c>
@@ -11184,7 +10788,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>11</v>
       </c>
@@ -11201,7 +10805,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>12</v>
       </c>
@@ -11218,7 +10822,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>13</v>
       </c>
@@ -11235,7 +10839,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>14</v>
       </c>
@@ -11252,7 +10856,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>15</v>
       </c>
@@ -11269,7 +10873,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>16</v>
       </c>
@@ -11286,7 +10890,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>17</v>
       </c>
@@ -11303,7 +10907,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>18</v>
       </c>
@@ -11320,7 +10924,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>19</v>
       </c>
@@ -11337,7 +10941,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>20</v>
       </c>
@@ -11354,7 +10958,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>21</v>
       </c>
@@ -11371,7 +10975,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>22</v>
       </c>
@@ -11388,7 +10992,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>23</v>
       </c>
@@ -11405,7 +11009,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>24</v>
       </c>
@@ -11422,7 +11026,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>25</v>
       </c>
@@ -11439,7 +11043,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>26</v>
       </c>
@@ -11456,7 +11060,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>27</v>
       </c>
@@ -11473,7 +11077,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>268</v>
       </c>
@@ -11482,7 +11086,7 @@
       <c r="D73" s="5"/>
       <c r="E73" s="6"/>
     </row>
-    <row r="74" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>1</v>
       </c>
@@ -11499,7 +11103,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -11516,7 +11120,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>3</v>
       </c>
@@ -11533,7 +11137,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>4</v>
       </c>
@@ -11550,7 +11154,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>5</v>
       </c>
@@ -11567,7 +11171,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>6</v>
       </c>
@@ -11584,7 +11188,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>7</v>
       </c>
@@ -11601,7 +11205,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>8</v>
       </c>
@@ -11618,7 +11222,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>9</v>
       </c>
@@ -11635,7 +11239,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>10</v>
       </c>
@@ -11652,7 +11256,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>11</v>
       </c>
@@ -11669,7 +11273,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>12</v>
       </c>
@@ -11686,7 +11290,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>13</v>
       </c>
@@ -11703,7 +11307,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>14</v>
       </c>
@@ -11720,7 +11324,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>15</v>
       </c>
@@ -11737,7 +11341,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>16</v>
       </c>
@@ -11754,7 +11358,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>17</v>
       </c>
@@ -11771,7 +11375,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>18</v>
       </c>
@@ -11788,7 +11392,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>19</v>
       </c>
@@ -11805,7 +11409,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>20</v>
       </c>
@@ -11822,7 +11426,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>21</v>
       </c>
@@ -11839,7 +11443,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>22</v>
       </c>
@@ -11856,7 +11460,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>23</v>
       </c>
@@ -11873,7 +11477,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>24</v>
       </c>
@@ -11890,7 +11494,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>25</v>
       </c>
@@ -11907,7 +11511,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>26</v>
       </c>
@@ -11924,7 +11528,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>27</v>
       </c>
@@ -11941,7 +11545,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>28</v>
       </c>
@@ -11958,7 +11562,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>29</v>
       </c>
@@ -11975,7 +11579,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>385</v>
       </c>
@@ -11984,7 +11588,7 @@
       <c r="D103" s="5"/>
       <c r="E103" s="6"/>
     </row>
-    <row r="104" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>1</v>
       </c>
@@ -12001,7 +11605,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="105" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>2</v>
       </c>
@@ -12018,7 +11622,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>3</v>
       </c>
@@ -12035,7 +11639,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>4</v>
       </c>
@@ -12052,7 +11656,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>5</v>
       </c>
@@ -12069,7 +11673,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>6</v>
       </c>
@@ -12086,7 +11690,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>7</v>
       </c>
@@ -12103,7 +11707,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>8</v>
       </c>
@@ -12120,7 +11724,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>9</v>
       </c>
@@ -12137,7 +11741,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>10</v>
       </c>
@@ -12154,7 +11758,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>11</v>
       </c>
@@ -12171,7 +11775,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>12</v>
       </c>
@@ -12188,7 +11792,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>13</v>
       </c>
@@ -12205,7 +11809,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>14</v>
       </c>
@@ -12222,7 +11826,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>15</v>
       </c>
@@ -12239,7 +11843,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>16</v>
       </c>
@@ -12256,7 +11860,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>17</v>
       </c>
@@ -12273,7 +11877,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>18</v>
       </c>
@@ -12290,7 +11894,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>19</v>
       </c>
@@ -12307,7 +11911,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>20</v>
       </c>
@@ -12324,7 +11928,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>21</v>
       </c>
@@ -12341,7 +11945,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>22</v>
       </c>
@@ -12358,7 +11962,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>23</v>
       </c>
@@ -12375,7 +11979,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>24</v>
       </c>
@@ -12392,7 +11996,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>25</v>
       </c>
@@ -12409,7 +12013,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>26</v>
       </c>
@@ -12426,7 +12030,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>27</v>
       </c>
@@ -12443,7 +12047,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>28</v>
       </c>
@@ -12460,7 +12064,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>29</v>
       </c>
@@ -12477,7 +12081,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>30</v>
       </c>
@@ -12494,7 +12098,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
         <v>506</v>
       </c>
@@ -12503,7 +12107,7 @@
       <c r="D134" s="5"/>
       <c r="E134" s="6"/>
     </row>
-    <row r="135" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>1</v>
       </c>
@@ -12520,7 +12124,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -12537,7 +12141,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>3</v>
       </c>
@@ -12554,7 +12158,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>4</v>
       </c>
@@ -12571,7 +12175,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>5</v>
       </c>
@@ -12588,7 +12192,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>6</v>
       </c>
@@ -12605,7 +12209,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>7</v>
       </c>
@@ -12622,7 +12226,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>8</v>
       </c>
@@ -12639,7 +12243,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="143" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>9</v>
       </c>
@@ -12656,7 +12260,7 @@
         <v>505256965</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>10</v>
       </c>
@@ -12673,7 +12277,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>11</v>
       </c>
@@ -12690,7 +12294,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>12</v>
       </c>
@@ -12707,7 +12311,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>13</v>
       </c>
@@ -12724,7 +12328,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>14</v>
       </c>
@@ -12741,7 +12345,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>15</v>
       </c>
@@ -12758,7 +12362,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>16</v>
       </c>
@@ -12775,7 +12379,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>17</v>
       </c>
@@ -12792,7 +12396,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>18</v>
       </c>
@@ -12809,7 +12413,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>19</v>
       </c>
@@ -12826,7 +12430,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>20</v>
       </c>
@@ -12843,7 +12447,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>21</v>
       </c>
@@ -12860,7 +12464,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>22</v>
       </c>
@@ -12877,7 +12481,7 @@
         <v>380955163064</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>23</v>
       </c>
@@ -12894,7 +12498,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>24</v>
       </c>
@@ -12911,7 +12515,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>25</v>
       </c>
@@ -12928,7 +12532,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>26</v>
       </c>
@@ -12945,7 +12549,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>27</v>
       </c>
@@ -12962,7 +12566,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>28</v>
       </c>
@@ -12979,7 +12583,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>29</v>
       </c>
@@ -12996,7 +12600,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="164" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>30</v>
       </c>
@@ -13013,7 +12617,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="165" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>31</v>
       </c>
@@ -13030,7 +12634,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>32</v>
       </c>
@@ -13047,7 +12651,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>633</v>
       </c>
@@ -13056,7 +12660,7 @@
       <c r="D167" s="5"/>
       <c r="E167" s="6"/>
     </row>
-    <row r="168" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>1</v>
       </c>
@@ -13073,7 +12677,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>2</v>
       </c>
@@ -13090,7 +12694,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>3</v>
       </c>
@@ -13107,7 +12711,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>4</v>
       </c>
@@ -13124,7 +12728,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>5</v>
       </c>
@@ -13141,7 +12745,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>6</v>
       </c>
@@ -13158,7 +12762,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>7</v>
       </c>
@@ -13175,7 +12779,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>8</v>
       </c>
@@ -13192,7 +12796,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>9</v>
       </c>
@@ -13209,7 +12813,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>10</v>
       </c>
@@ -13226,7 +12830,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>11</v>
       </c>
@@ -13243,7 +12847,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>12</v>
       </c>
@@ -13260,7 +12864,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>13</v>
       </c>
@@ -13277,7 +12881,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>14</v>
       </c>
@@ -13294,7 +12898,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>15</v>
       </c>
@@ -13311,7 +12915,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>16</v>
       </c>
@@ -13328,7 +12932,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>17</v>
       </c>
@@ -13345,7 +12949,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>18</v>
       </c>
@@ -13362,7 +12966,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="186" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>19</v>
       </c>
@@ -13379,7 +12983,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
         <v>710</v>
       </c>
@@ -13388,7 +12992,7 @@
       <c r="D187" s="5"/>
       <c r="E187" s="6"/>
     </row>
-    <row r="188" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>1</v>
       </c>
@@ -13405,7 +13009,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="189" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>2</v>
       </c>
@@ -13422,7 +13026,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>3</v>
       </c>
@@ -13439,7 +13043,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="191" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>4</v>
       </c>
@@ -13456,7 +13060,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>5</v>
       </c>
@@ -13473,7 +13077,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="193" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>6</v>
       </c>
@@ -13490,7 +13094,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>7</v>
       </c>
@@ -13507,7 +13111,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="195" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>8</v>
       </c>
@@ -13524,7 +13128,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="196" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>9</v>
       </c>
@@ -13541,7 +13145,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>10</v>
       </c>
@@ -13558,7 +13162,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="198" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>11</v>
       </c>
@@ -13575,7 +13179,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="199" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>12</v>
       </c>
@@ -13592,7 +13196,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="200" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>13</v>
       </c>
@@ -13609,7 +13213,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="201" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>14</v>
       </c>
@@ -13626,7 +13230,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="202" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>15</v>
       </c>
@@ -13643,7 +13247,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="203" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>16</v>
       </c>
@@ -13660,7 +13264,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="204" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>17</v>
       </c>
@@ -13677,7 +13281,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="205" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
         <v>779</v>
       </c>
@@ -13686,7 +13290,7 @@
       <c r="D205" s="5"/>
       <c r="E205" s="6"/>
     </row>
-    <row r="206" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>1</v>
       </c>
@@ -13703,7 +13307,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="207" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>2</v>
       </c>
@@ -13720,7 +13324,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="208" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>3</v>
       </c>
@@ -13737,7 +13341,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="209" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>4</v>
       </c>
@@ -13754,7 +13358,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="210" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>5</v>
       </c>
@@ -13771,7 +13375,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="211" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>6</v>
       </c>
@@ -13788,7 +13392,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="212" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>7</v>
       </c>
@@ -13805,7 +13409,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="213" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>8</v>
       </c>
@@ -13822,7 +13426,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="214" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>9</v>
       </c>
@@ -13839,7 +13443,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>10</v>
       </c>
@@ -13856,7 +13460,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="216" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>11</v>
       </c>
@@ -13873,7 +13477,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="217" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>12</v>
       </c>
@@ -13890,7 +13494,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="218" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>13</v>
       </c>
@@ -13907,7 +13511,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="219" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>14</v>
       </c>
@@ -13924,7 +13528,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="220" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>15</v>
       </c>
@@ -13941,7 +13545,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>16</v>
       </c>
@@ -13958,7 +13562,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="222" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>17</v>
       </c>
@@ -13975,7 +13579,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="223" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>18</v>
       </c>
@@ -13992,7 +13596,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>19</v>
       </c>
@@ -14009,7 +13613,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>20</v>
       </c>
@@ -14026,7 +13630,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
         <v>860</v>
       </c>
@@ -14035,7 +13639,7 @@
       <c r="D226" s="5"/>
       <c r="E226" s="6"/>
     </row>
-    <row r="227" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>1</v>
       </c>
@@ -14052,7 +13656,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="228" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>2</v>
       </c>
@@ -14069,7 +13673,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>3</v>
       </c>
@@ -14086,7 +13690,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="230" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
         <v>873</v>
       </c>
@@ -14095,7 +13699,7 @@
       <c r="D230" s="5"/>
       <c r="E230" s="6"/>
     </row>
-    <row r="231" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>1</v>
       </c>
@@ -14112,7 +13716,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="232" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>2</v>
       </c>
@@ -14129,7 +13733,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>3</v>
       </c>
@@ -14146,7 +13750,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="234" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>4</v>
       </c>
@@ -14163,7 +13767,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="235" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>5</v>
       </c>
@@ -14180,7 +13784,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>6</v>
       </c>
@@ -14197,7 +13801,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>7</v>
       </c>
@@ -14214,7 +13818,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>8</v>
       </c>
@@ -14231,7 +13835,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
         <v>906</v>
       </c>
@@ -14240,7 +13844,7 @@
       <c r="D239" s="5"/>
       <c r="E239" s="6"/>
     </row>
-    <row r="240" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>1</v>
       </c>
@@ -14257,7 +13861,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>2</v>
       </c>
@@ -14274,7 +13878,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="242" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>3</v>
       </c>
@@ -14289,7 +13893,7 @@
       </c>
       <c r="E242" s="3"/>
     </row>
-    <row r="243" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>4</v>
       </c>
@@ -14304,7 +13908,7 @@
       </c>
       <c r="E243" s="3"/>
     </row>
-    <row r="244" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>5</v>
       </c>
@@ -14321,7 +13925,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="245" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>6</v>
       </c>
@@ -14336,7 +13940,7 @@
       </c>
       <c r="E245" s="3"/>
     </row>
-    <row r="246" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>7</v>
       </c>
@@ -14351,7 +13955,7 @@
       </c>
       <c r="E246" s="3"/>
     </row>
-    <row r="247" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>8</v>
       </c>
@@ -14366,7 +13970,7 @@
       </c>
       <c r="E247" s="3"/>
     </row>
-    <row r="248" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>9</v>
       </c>
@@ -14381,7 +13985,7 @@
       </c>
       <c r="E248" s="3"/>
     </row>
-    <row r="249" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>10</v>
       </c>
@@ -14396,7 +14000,7 @@
       </c>
       <c r="E249" s="3"/>
     </row>
-    <row r="250" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>11</v>
       </c>
@@ -14411,7 +14015,7 @@
       </c>
       <c r="E250" s="3"/>
     </row>
-    <row r="251" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>12</v>
       </c>
@@ -14428,7 +14032,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="252" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>13</v>
       </c>
@@ -14445,7 +14049,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>14</v>
       </c>
@@ -14460,7 +14064,7 @@
       </c>
       <c r="E253" s="3"/>
     </row>
-    <row r="254" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>15</v>
       </c>
@@ -14477,7 +14081,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="255" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>16</v>
       </c>
@@ -14492,7 +14096,7 @@
       </c>
       <c r="E255" s="3"/>
     </row>
-    <row r="256" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>17</v>
       </c>
@@ -14507,7 +14111,7 @@
       </c>
       <c r="E256" s="3"/>
     </row>
-    <row r="257" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>18</v>
       </c>
@@ -14524,7 +14128,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="258" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>19</v>
       </c>
@@ -14541,7 +14145,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>20</v>
       </c>
@@ -14558,7 +14162,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="260" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>21</v>
       </c>
@@ -14573,7 +14177,7 @@
       </c>
       <c r="E260" s="3"/>
     </row>
-    <row r="261" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>22</v>
       </c>
@@ -14588,7 +14192,7 @@
       </c>
       <c r="E261" s="3"/>
     </row>
-    <row r="262" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>23</v>
       </c>
@@ -14605,7 +14209,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="263" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>24</v>
       </c>
@@ -14622,7 +14226,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="264" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>25</v>
       </c>
@@ -14639,7 +14243,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="265" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>26</v>
       </c>
@@ -14656,7 +14260,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>27</v>
       </c>
@@ -14673,7 +14277,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>28</v>
       </c>
@@ -14688,7 +14292,7 @@
       </c>
       <c r="E267" s="3"/>
     </row>
-    <row r="268" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>29</v>
       </c>
@@ -14703,7 +14307,7 @@
       </c>
       <c r="E268" s="3"/>
     </row>
-    <row r="269" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
         <v>993</v>
       </c>
@@ -14712,7 +14316,7 @@
       <c r="D269" s="5"/>
       <c r="E269" s="6"/>
     </row>
-    <row r="270" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>1</v>
       </c>
@@ -14727,7 +14331,7 @@
       </c>
       <c r="E270" s="3"/>
     </row>
-    <row r="271" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>2</v>
       </c>
@@ -14744,7 +14348,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>3</v>
       </c>
@@ -14761,7 +14365,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="273" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>4</v>
       </c>
@@ -14776,7 +14380,7 @@
       </c>
       <c r="E273" s="3"/>
     </row>
-    <row r="274" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>5</v>
       </c>
@@ -14793,7 +14397,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>6</v>
       </c>
@@ -14810,7 +14414,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="276" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
         <v>1014</v>
       </c>
@@ -14819,7 +14423,7 @@
       <c r="D276" s="5"/>
       <c r="E276" s="6"/>
     </row>
-    <row r="277" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>1</v>
       </c>
@@ -14836,7 +14440,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>1019</v>
       </c>
@@ -14845,7 +14449,7 @@
       <c r="D278" s="5"/>
       <c r="E278" s="6"/>
     </row>
-    <row r="279" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>1</v>
       </c>
@@ -14860,7 +14464,7 @@
       </c>
       <c r="E279" s="3"/>
     </row>
-    <row r="280" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>2</v>
       </c>
@@ -14875,7 +14479,7 @@
       </c>
       <c r="E280" s="3"/>
     </row>
-    <row r="281" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>3</v>
       </c>
@@ -14892,7 +14496,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>4</v>
       </c>
@@ -14907,7 +14511,7 @@
       </c>
       <c r="E282" s="3"/>
     </row>
-    <row r="283" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>5</v>
       </c>
@@ -14924,7 +14528,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>6</v>
       </c>
@@ -14939,7 +14543,7 @@
       </c>
       <c r="E284" s="3"/>
     </row>
-    <row r="285" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>7</v>
       </c>
@@ -14956,7 +14560,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="286" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>8</v>
       </c>
@@ -14971,7 +14575,7 @@
       </c>
       <c r="E286" s="3"/>
     </row>
-    <row r="287" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>9</v>
       </c>
@@ -14986,7 +14590,7 @@
       </c>
       <c r="E287" s="3"/>
     </row>
-    <row r="288" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>10</v>
       </c>
@@ -15001,7 +14605,7 @@
       </c>
       <c r="E288" s="3"/>
     </row>
-    <row r="289" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>11</v>
       </c>
@@ -15016,7 +14620,7 @@
       </c>
       <c r="E289" s="3"/>
     </row>
-    <row r="290" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>12</v>
       </c>
@@ -15031,7 +14635,7 @@
       </c>
       <c r="E290" s="3"/>
     </row>
-    <row r="291" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>13</v>
       </c>
@@ -15048,7 +14652,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>14</v>
       </c>
@@ -15063,7 +14667,7 @@
       </c>
       <c r="E292" s="3"/>
     </row>
-    <row r="293" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>15</v>
       </c>
@@ -15080,7 +14684,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>16</v>
       </c>
@@ -15095,7 +14699,7 @@
       </c>
       <c r="E294" s="3"/>
     </row>
-    <row r="295" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>17</v>
       </c>
@@ -15112,7 +14716,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="296" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>18</v>
       </c>
@@ -15127,7 +14731,7 @@
       </c>
       <c r="E296" s="3"/>
     </row>
-    <row r="297" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>19</v>
       </c>
@@ -15144,7 +14748,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>20</v>
       </c>
@@ -15161,7 +14765,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>21</v>
       </c>
@@ -15176,7 +14780,7 @@
       </c>
       <c r="E299" s="3"/>
     </row>
-    <row r="300" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>22</v>
       </c>
@@ -15193,7 +14797,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>23</v>
       </c>
@@ -15208,7 +14812,7 @@
       </c>
       <c r="E301" s="3"/>
     </row>
-    <row r="302" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>24</v>
       </c>
@@ -15223,7 +14827,7 @@
       </c>
       <c r="E302" s="3"/>
     </row>
-    <row r="303" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>25</v>
       </c>
@@ -15238,7 +14842,7 @@
       </c>
       <c r="E303" s="3"/>
     </row>
-    <row r="304" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>26</v>
       </c>
@@ -15253,7 +14857,7 @@
       </c>
       <c r="E304" s="3"/>
     </row>
-    <row r="305" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>27</v>
       </c>
@@ -15270,7 +14874,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>28</v>
       </c>
@@ -15285,7 +14889,7 @@
       </c>
       <c r="E306" s="3"/>
     </row>
-    <row r="307" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>29</v>
       </c>
@@ -15302,7 +14906,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>1100</v>
       </c>
@@ -15311,7 +14915,7 @@
       <c r="D308" s="5"/>
       <c r="E308" s="6"/>
     </row>
-    <row r="309" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>1</v>
       </c>
@@ -15328,7 +14932,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="310" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
         <v>1105</v>
       </c>
@@ -15337,7 +14941,7 @@
       <c r="D310" s="5"/>
       <c r="E310" s="6"/>
     </row>
-    <row r="311" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>1</v>
       </c>
@@ -15354,7 +14958,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="312" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
         <v>1110</v>
       </c>
@@ -15363,7 +14967,7 @@
       <c r="D312" s="5"/>
       <c r="E312" s="6"/>
     </row>
-    <row r="313" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>1</v>
       </c>
@@ -15380,7 +14984,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>2</v>
       </c>
@@ -15397,7 +15001,7 @@
         <v>380500136169</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>3</v>
       </c>
@@ -15414,7 +15018,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>4</v>
       </c>
@@ -15431,7 +15035,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>5</v>
       </c>
@@ -15446,7 +15050,7 @@
       </c>
       <c r="E317" s="3"/>
     </row>
-    <row r="318" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>6</v>
       </c>
@@ -15463,7 +15067,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>7</v>
       </c>
@@ -15480,7 +15084,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>8</v>
       </c>
@@ -15497,7 +15101,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>9</v>
       </c>
@@ -15514,7 +15118,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>10</v>
       </c>
@@ -15531,7 +15135,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>11</v>
       </c>
@@ -15546,7 +15150,7 @@
       </c>
       <c r="E323" s="3"/>
     </row>
-    <row r="324" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>12</v>
       </c>
@@ -15563,7 +15167,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>13</v>
       </c>
@@ -15578,7 +15182,7 @@
       </c>
       <c r="E325" s="3"/>
     </row>
-    <row r="326" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>14</v>
       </c>
@@ -15595,7 +15199,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>15</v>
       </c>
@@ -15612,7 +15216,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>16</v>
       </c>
@@ -15629,7 +15233,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="329" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>17</v>
       </c>
@@ -15646,7 +15250,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>18</v>
       </c>
@@ -15663,7 +15267,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>19</v>
       </c>
@@ -15680,7 +15284,7 @@
         <v>987463970</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>20</v>
       </c>
@@ -15695,7 +15299,7 @@
       </c>
       <c r="E332" s="3"/>
     </row>
-    <row r="333" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>21</v>
       </c>
@@ -15712,7 +15316,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>22</v>
       </c>
@@ -15727,7 +15331,7 @@
       </c>
       <c r="E334" s="3"/>
     </row>
-    <row r="335" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>23</v>
       </c>
@@ -15744,7 +15348,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>24</v>
       </c>
@@ -15761,7 +15365,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>25</v>
       </c>
@@ -15778,7 +15382,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>26</v>
       </c>
@@ -15795,7 +15399,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>27</v>
       </c>
@@ -15812,7 +15416,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>28</v>
       </c>
@@ -15829,7 +15433,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>29</v>
       </c>
@@ -15844,7 +15448,7 @@
       </c>
       <c r="E341" s="3"/>
     </row>
-    <row r="342" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>30</v>
       </c>
@@ -15861,7 +15465,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
         <v>1219</v>
       </c>
@@ -15870,7 +15474,7 @@
       <c r="D343" s="5"/>
       <c r="E343" s="6"/>
     </row>
-    <row r="344" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>1</v>
       </c>
@@ -15887,7 +15491,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>2</v>
       </c>
@@ -15904,7 +15508,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>3</v>
       </c>
@@ -15921,7 +15525,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>4</v>
       </c>
@@ -15938,7 +15542,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>5</v>
       </c>
@@ -15955,7 +15559,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>6</v>
       </c>
@@ -15970,7 +15574,7 @@
       </c>
       <c r="E349" s="3"/>
     </row>
-    <row r="350" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>7</v>
       </c>
@@ -15987,7 +15591,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>8</v>
       </c>
@@ -16002,7 +15606,7 @@
       </c>
       <c r="E351" s="3"/>
     </row>
-    <row r="352" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>9</v>
       </c>
@@ -16019,7 +15623,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>10</v>
       </c>
@@ -16036,7 +15640,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>11</v>
       </c>
@@ -16053,7 +15657,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>12</v>
       </c>
@@ -16068,7 +15672,7 @@
       </c>
       <c r="E355" s="3"/>
     </row>
-    <row r="356" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>13</v>
       </c>
@@ -16085,7 +15689,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>14</v>
       </c>
@@ -16102,7 +15706,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>15</v>
       </c>
@@ -16119,7 +15723,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>16</v>
       </c>
@@ -16136,7 +15740,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>17</v>
       </c>
@@ -16153,7 +15757,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>18</v>
       </c>
@@ -16170,7 +15774,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>19</v>
       </c>
@@ -16185,7 +15789,7 @@
       </c>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>20</v>
       </c>
@@ -16200,7 +15804,7 @@
       </c>
       <c r="E363" s="3"/>
     </row>
-    <row r="364" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>21</v>
       </c>
@@ -16215,7 +15819,7 @@
       </c>
       <c r="E364" s="3"/>
     </row>
-    <row r="365" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>22</v>
       </c>
@@ -16230,7 +15834,7 @@
       </c>
       <c r="E365" s="3"/>
     </row>
-    <row r="366" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>23</v>
       </c>
@@ -16245,7 +15849,7 @@
       </c>
       <c r="E366" s="3"/>
     </row>
-    <row r="367" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>24</v>
       </c>
@@ -16262,7 +15866,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>25</v>
       </c>
@@ -16279,7 +15883,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>26</v>
       </c>
@@ -16294,7 +15898,7 @@
       </c>
       <c r="E369" s="3"/>
     </row>
-    <row r="370" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>27</v>
       </c>
@@ -16309,7 +15913,7 @@
       </c>
       <c r="E370" s="3"/>
     </row>
-    <row r="371" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
         <v>1308</v>
       </c>
@@ -16318,7 +15922,7 @@
       <c r="D371" s="5"/>
       <c r="E371" s="6"/>
     </row>
-    <row r="372" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>1</v>
       </c>
@@ -16333,7 +15937,7 @@
       </c>
       <c r="E372" s="3"/>
     </row>
-    <row r="373" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>2</v>
       </c>
@@ -16348,7 +15952,7 @@
       </c>
       <c r="E373" s="3"/>
     </row>
-    <row r="374" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>3</v>
       </c>
@@ -16365,7 +15969,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>4</v>
       </c>
@@ -16382,7 +15986,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>5</v>
       </c>
@@ -16397,7 +16001,7 @@
       </c>
       <c r="E376" s="3"/>
     </row>
-    <row r="377" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>6</v>
       </c>
@@ -16414,7 +16018,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>7</v>
       </c>
@@ -16429,7 +16033,7 @@
       </c>
       <c r="E378" s="3"/>
     </row>
-    <row r="379" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>8</v>
       </c>
@@ -16446,7 +16050,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>9</v>
       </c>
@@ -16463,7 +16067,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>10</v>
       </c>
@@ -16478,7 +16082,7 @@
       </c>
       <c r="E381" s="3"/>
     </row>
-    <row r="382" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>11</v>
       </c>
@@ -16495,7 +16099,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>12</v>
       </c>
@@ -16512,7 +16116,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>13</v>
       </c>
@@ -16527,7 +16131,7 @@
       </c>
       <c r="E384" s="3"/>
     </row>
-    <row r="385" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>14</v>
       </c>
@@ -16544,7 +16148,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
         <v>1353</v>
       </c>
@@ -16553,7 +16157,7 @@
       <c r="D386" s="5"/>
       <c r="E386" s="6"/>
     </row>
-    <row r="387" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>1</v>
       </c>
@@ -16570,7 +16174,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>2</v>
       </c>
@@ -16587,7 +16191,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>3</v>
       </c>
@@ -16604,7 +16208,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>4</v>
       </c>
@@ -16621,7 +16225,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>5</v>
       </c>
@@ -16638,7 +16242,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>6</v>
       </c>
@@ -16655,7 +16259,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>7</v>
       </c>
@@ -16672,7 +16276,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="394" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>8</v>
       </c>
@@ -16689,7 +16293,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>9</v>
       </c>
@@ -16704,7 +16308,7 @@
       </c>
       <c r="E395" s="3"/>
     </row>
-    <row r="396" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>10</v>
       </c>
@@ -16721,7 +16325,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>11</v>
       </c>
@@ -16738,7 +16342,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="398" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>12</v>
       </c>
@@ -16755,7 +16359,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>13</v>
       </c>
@@ -16772,7 +16376,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>14</v>
       </c>
@@ -16789,7 +16393,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>15</v>
       </c>
@@ -16806,7 +16410,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>16</v>
       </c>
@@ -16823,7 +16427,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>17</v>
       </c>
@@ -16840,7 +16444,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>18</v>
       </c>
@@ -16857,7 +16461,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>19</v>
       </c>
@@ -16874,7 +16478,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>20</v>
       </c>
@@ -16891,7 +16495,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>1432</v>
       </c>
@@ -16900,7 +16504,7 @@
       <c r="D407" s="5"/>
       <c r="E407" s="6"/>
     </row>
-    <row r="408" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>1</v>
       </c>
@@ -16917,7 +16521,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>2</v>
       </c>
@@ -16932,7 +16536,7 @@
       </c>
       <c r="E409" s="3"/>
     </row>
-    <row r="410" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>3</v>
       </c>
@@ -16949,7 +16553,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>4</v>
       </c>
@@ -16964,7 +16568,7 @@
       </c>
       <c r="E411" s="3"/>
     </row>
-    <row r="412" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>5</v>
       </c>
@@ -16981,7 +16585,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
         <v>1449</v>
       </c>
@@ -16990,7 +16594,7 @@
       <c r="D413" s="5"/>
       <c r="E413" s="6"/>
     </row>
-    <row r="414" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>1</v>
       </c>
@@ -17007,7 +16611,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
         <v>1454</v>
       </c>
@@ -17016,7 +16620,7 @@
       <c r="D415" s="5"/>
       <c r="E415" s="6"/>
     </row>
-    <row r="416" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>1</v>
       </c>
@@ -17031,7 +16635,7 @@
       </c>
       <c r="E416" s="3"/>
     </row>
-    <row r="417" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>2</v>
       </c>
@@ -17044,7 +16648,7 @@
       <c r="D417" s="3"/>
       <c r="E417" s="3"/>
     </row>
-    <row r="418" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>3</v>
       </c>
@@ -17059,7 +16663,7 @@
       </c>
       <c r="E418" s="3"/>
     </row>
-    <row r="419" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>4</v>
       </c>
@@ -17076,7 +16680,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>5</v>
       </c>
@@ -17091,7 +16695,7 @@
       </c>
       <c r="E420" s="3"/>
     </row>
-    <row r="421" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>6</v>
       </c>
@@ -17108,7 +16712,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>7</v>
       </c>
@@ -17123,7 +16727,7 @@
       </c>
       <c r="E422" s="3"/>
     </row>
-    <row r="423" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>8</v>
       </c>
@@ -17138,7 +16742,7 @@
       </c>
       <c r="E423" s="3"/>
     </row>
-    <row r="424" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>9</v>
       </c>
@@ -17153,7 +16757,7 @@
       </c>
       <c r="E424" s="3"/>
     </row>
-    <row r="425" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
         <v>1480</v>
       </c>
@@ -17162,7 +16766,7 @@
       <c r="D425" s="5"/>
       <c r="E425" s="6"/>
     </row>
-    <row r="426" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>1</v>
       </c>
@@ -17177,7 +16781,7 @@
       </c>
       <c r="E426" s="3"/>
     </row>
-    <row r="427" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>2</v>
       </c>
@@ -17192,7 +16796,7 @@
       </c>
       <c r="E427" s="3"/>
     </row>
-    <row r="428" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>3</v>
       </c>
@@ -17209,7 +16813,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>4</v>
       </c>
@@ -17224,7 +16828,7 @@
       </c>
       <c r="E429" s="3"/>
     </row>
-    <row r="430" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>5</v>
       </c>
@@ -17239,7 +16843,7 @@
       </c>
       <c r="E430" s="3"/>
     </row>
-    <row r="431" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>6</v>
       </c>
@@ -17254,7 +16858,7 @@
       </c>
       <c r="E431" s="3"/>
     </row>
-    <row r="432" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>7</v>
       </c>
@@ -17269,7 +16873,7 @@
       </c>
       <c r="E432" s="3"/>
     </row>
-    <row r="433" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>8</v>
       </c>
@@ -17284,7 +16888,7 @@
       </c>
       <c r="E433" s="3"/>
     </row>
-    <row r="434" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>9</v>
       </c>
@@ -17301,7 +16905,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>10</v>
       </c>
@@ -17316,7 +16920,7 @@
       </c>
       <c r="E435" s="3"/>
     </row>
-    <row r="436" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>11</v>
       </c>
@@ -17333,7 +16937,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>12</v>
       </c>
@@ -17348,7 +16952,7 @@
       </c>
       <c r="E437" s="3"/>
     </row>
-    <row r="438" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>13</v>
       </c>
@@ -17363,7 +16967,7 @@
       </c>
       <c r="E438" s="3"/>
     </row>
-    <row r="439" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
         <v>1515</v>
       </c>
@@ -17372,7 +16976,7 @@
       <c r="D439" s="5"/>
       <c r="E439" s="6"/>
     </row>
-    <row r="440" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>1</v>
       </c>
@@ -17389,7 +16993,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>2</v>
       </c>
@@ -17406,7 +17010,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="442" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>3</v>
       </c>
@@ -17423,7 +17027,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>4</v>
       </c>
@@ -17440,7 +17044,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>5</v>
       </c>
@@ -17457,7 +17061,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>6</v>
       </c>
@@ -17474,7 +17078,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>7</v>
       </c>
@@ -17491,7 +17095,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
         <v>1544</v>
       </c>
@@ -17500,7 +17104,7 @@
       <c r="D447" s="5"/>
       <c r="E447" s="6"/>
     </row>
-    <row r="448" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>1</v>
       </c>
@@ -17517,7 +17121,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>2</v>
       </c>
@@ -17534,7 +17138,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="450" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>3</v>
       </c>
@@ -17551,7 +17155,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>4</v>
       </c>
@@ -17568,7 +17172,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>5</v>
       </c>
@@ -17585,7 +17189,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>6</v>
       </c>
@@ -17602,7 +17206,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>7</v>
       </c>
@@ -17619,7 +17223,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>8</v>
       </c>
@@ -17636,7 +17240,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>9</v>
       </c>
@@ -17653,7 +17257,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>10</v>
       </c>
@@ -17670,7 +17274,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>11</v>
       </c>
@@ -17687,7 +17291,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>12</v>
       </c>
@@ -17704,7 +17308,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>13</v>
       </c>
@@ -17721,7 +17325,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>14</v>
       </c>
@@ -17738,7 +17342,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>15</v>
       </c>
@@ -17755,7 +17359,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>16</v>
       </c>
@@ -17772,7 +17376,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>17</v>
       </c>
@@ -17789,7 +17393,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>18</v>
       </c>
@@ -17806,7 +17410,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>19</v>
       </c>
@@ -17823,7 +17427,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>20</v>
       </c>
@@ -17840,7 +17444,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>21</v>
       </c>
@@ -17857,7 +17461,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="469" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>22</v>
       </c>
@@ -17874,7 +17478,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="470" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>23</v>
       </c>
@@ -17891,7 +17495,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="471" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>24</v>
       </c>
@@ -17908,7 +17512,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>25</v>
       </c>
@@ -17925,7 +17529,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>26</v>
       </c>
@@ -17942,7 +17546,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>27</v>
       </c>
@@ -17959,7 +17563,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>28</v>
       </c>
@@ -17976,7 +17580,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>29</v>
       </c>
@@ -17993,7 +17597,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>30</v>
       </c>
@@ -18010,7 +17614,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>31</v>
       </c>
@@ -18027,7 +17631,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
         <v>1669</v>
       </c>
@@ -18036,7 +17640,7 @@
       <c r="D479" s="5"/>
       <c r="E479" s="6"/>
     </row>
-    <row r="480" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>1</v>
       </c>
@@ -18053,7 +17657,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>2</v>
       </c>
@@ -18070,7 +17674,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>3</v>
       </c>
@@ -18087,7 +17691,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>4</v>
       </c>
@@ -18104,7 +17708,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>5</v>
       </c>
@@ -18121,7 +17725,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>6</v>
       </c>
@@ -18138,7 +17742,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>7</v>
       </c>
@@ -18155,7 +17759,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>8</v>
       </c>
@@ -18172,7 +17776,7 @@
         <v>662416483</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>9</v>
       </c>
@@ -18189,7 +17793,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>10</v>
       </c>
@@ -18206,7 +17810,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>11</v>
       </c>
@@ -18223,7 +17827,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>12</v>
       </c>
@@ -18240,7 +17844,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>13</v>
       </c>
@@ -18257,7 +17861,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>14</v>
       </c>
@@ -18274,7 +17878,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>15</v>
       </c>
@@ -18291,7 +17895,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>16</v>
       </c>
@@ -18304,7 +17908,7 @@
       <c r="D495" s="3"/>
       <c r="E495" s="3"/>
     </row>
-    <row r="496" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>17</v>
       </c>
@@ -18321,7 +17925,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>18</v>
       </c>
@@ -18338,7 +17942,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>19</v>
       </c>
@@ -18355,7 +17959,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>20</v>
       </c>
@@ -18372,7 +17976,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>21</v>
       </c>
@@ -18389,7 +17993,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="501" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
         <v>1751</v>
       </c>
@@ -18398,7 +18002,7 @@
       <c r="D501" s="5"/>
       <c r="E501" s="6"/>
     </row>
-    <row r="502" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>1</v>
       </c>
@@ -18415,7 +18019,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="503" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>2</v>
       </c>
@@ -18432,7 +18036,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>3</v>
       </c>
@@ -18449,7 +18053,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>4</v>
       </c>
@@ -18466,7 +18070,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>5</v>
       </c>
@@ -18483,7 +18087,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>6</v>
       </c>
@@ -18500,7 +18104,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>7</v>
       </c>
@@ -18517,7 +18121,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>8</v>
       </c>
@@ -18534,7 +18138,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
         <v>1784</v>
       </c>
@@ -18543,7 +18147,7 @@
       <c r="D510" s="5"/>
       <c r="E510" s="6"/>
     </row>
-    <row r="511" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>1</v>
       </c>
@@ -18560,7 +18164,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>2</v>
       </c>
@@ -18577,7 +18181,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>3</v>
       </c>
@@ -18594,7 +18198,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>4</v>
       </c>
@@ -18611,7 +18215,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>5</v>
       </c>
@@ -18628,7 +18232,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>6</v>
       </c>
@@ -18645,7 +18249,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>7</v>
       </c>
@@ -18662,7 +18266,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="518" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>8</v>
       </c>
@@ -18679,7 +18283,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>9</v>
       </c>
@@ -18696,7 +18300,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="520" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>10</v>
       </c>
@@ -18713,7 +18317,7 @@
         <v>633531538</v>
       </c>
     </row>
-    <row r="521" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>11</v>
       </c>
@@ -18730,7 +18334,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>12</v>
       </c>
@@ -18745,7 +18349,7 @@
       </c>
       <c r="E522" s="3"/>
     </row>
-    <row r="523" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>13</v>
       </c>
@@ -18762,7 +18366,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>14</v>
       </c>
@@ -18779,7 +18383,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>15</v>
       </c>
@@ -18796,7 +18400,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>16</v>
       </c>
@@ -18813,7 +18417,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>17</v>
       </c>
@@ -18830,7 +18434,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>18</v>
       </c>
@@ -18847,7 +18451,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>19</v>
       </c>
@@ -18864,7 +18468,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>20</v>
       </c>
@@ -18879,7 +18483,7 @@
         <v>959176465</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>21</v>
       </c>
@@ -18896,7 +18500,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>22</v>
       </c>
@@ -18911,7 +18515,7 @@
       </c>
       <c r="E532" s="3"/>
     </row>
-    <row r="533" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>23</v>
       </c>
@@ -18928,7 +18532,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>24</v>
       </c>
@@ -18945,7 +18549,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>25</v>
       </c>
@@ -18962,7 +18566,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>26</v>
       </c>
@@ -18977,7 +18581,7 @@
         <v>669032945</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="4" t="s">
         <v>1881</v>
       </c>
@@ -18986,7 +18590,7 @@
       <c r="D537" s="5"/>
       <c r="E537" s="6"/>
     </row>
-    <row r="538" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>1</v>
       </c>
@@ -19003,7 +18607,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>2</v>
       </c>
@@ -19020,7 +18624,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>3</v>
       </c>
@@ -19037,7 +18641,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>4</v>
       </c>
@@ -19054,7 +18658,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>5</v>
       </c>
@@ -19071,7 +18675,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>6</v>
       </c>
@@ -19088,7 +18692,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>7</v>
       </c>
@@ -19105,7 +18709,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>8</v>
       </c>
@@ -19122,7 +18726,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>9</v>
       </c>
@@ -19139,7 +18743,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>10</v>
       </c>
@@ -19156,7 +18760,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>11</v>
       </c>
@@ -19173,7 +18777,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>12</v>
       </c>
@@ -19190,7 +18794,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>13</v>
       </c>
@@ -19207,7 +18811,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>14</v>
       </c>
@@ -19224,7 +18828,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>15</v>
       </c>
@@ -19241,7 +18845,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>16</v>
       </c>
@@ -19258,7 +18862,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>17</v>
       </c>
@@ -19275,7 +18879,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>18</v>
       </c>
@@ -19292,7 +18896,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="556" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>19</v>
       </c>
@@ -19309,7 +18913,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>20</v>
       </c>
@@ -19326,7 +18930,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="558" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>21</v>
       </c>
@@ -19343,7 +18947,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>22</v>
       </c>
@@ -19360,7 +18964,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="560" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>23</v>
       </c>
@@ -19377,7 +18981,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>24</v>
       </c>
@@ -19394,7 +18998,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>25</v>
       </c>
@@ -19411,7 +19015,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>26</v>
       </c>
@@ -19428,7 +19032,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>27</v>
       </c>
@@ -19445,7 +19049,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>28</v>
       </c>
@@ -19462,7 +19066,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>29</v>
       </c>
@@ -19479,7 +19083,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
         <v>1998</v>
       </c>
@@ -19488,7 +19092,7 @@
       <c r="D567" s="5"/>
       <c r="E567" s="6"/>
     </row>
-    <row r="568" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>1</v>
       </c>
@@ -19505,7 +19109,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>2</v>
       </c>
@@ -19522,7 +19126,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>3</v>
       </c>
@@ -19539,7 +19143,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>4</v>
       </c>
@@ -19556,7 +19160,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>5</v>
       </c>
@@ -19573,7 +19177,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="4" t="s">
         <v>2019</v>
       </c>
@@ -19582,7 +19186,7 @@
       <c r="D573" s="5"/>
       <c r="E573" s="6"/>
     </row>
-    <row r="574" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>1</v>
       </c>
@@ -19599,7 +19203,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>2</v>
       </c>
@@ -19616,7 +19220,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="576" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>3</v>
       </c>
@@ -19633,7 +19237,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>4</v>
       </c>
@@ -19650,7 +19254,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>5</v>
       </c>
@@ -19667,7 +19271,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>6</v>
       </c>
@@ -19684,7 +19288,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>7</v>
       </c>
@@ -19701,7 +19305,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>8</v>
       </c>
@@ -19718,7 +19322,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>9</v>
       </c>
@@ -19735,7 +19339,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>10</v>
       </c>
@@ -19752,7 +19356,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>11</v>
       </c>
@@ -19769,7 +19373,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>12</v>
       </c>
@@ -19786,7 +19390,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>13</v>
       </c>
@@ -19803,7 +19407,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>14</v>
       </c>
@@ -19820,7 +19424,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
         <v>2076</v>
       </c>
@@ -19829,7 +19433,7 @@
       <c r="D588" s="5"/>
       <c r="E588" s="6"/>
     </row>
-    <row r="589" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>1</v>
       </c>
@@ -19846,7 +19450,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>2</v>
       </c>
@@ -19863,7 +19467,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>3</v>
       </c>
@@ -19880,7 +19484,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>4</v>
       </c>
@@ -19897,7 +19501,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>5</v>
       </c>
@@ -19914,7 +19518,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>6</v>
       </c>
@@ -19931,7 +19535,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>7</v>
       </c>
@@ -19948,7 +19552,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>8</v>
       </c>
@@ -19965,7 +19569,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>9</v>
       </c>
@@ -19982,7 +19586,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>10</v>
       </c>
@@ -19999,7 +19603,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>11</v>
       </c>
@@ -20016,7 +19620,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>12</v>
       </c>
@@ -20033,7 +19637,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
         <v>2125</v>
       </c>
@@ -20042,7 +19646,7 @@
       <c r="D601" s="5"/>
       <c r="E601" s="6"/>
     </row>
-    <row r="602" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>1</v>
       </c>
@@ -20059,7 +19663,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
         <v>2130</v>
       </c>
@@ -20068,7 +19672,7 @@
       <c r="D603" s="5"/>
       <c r="E603" s="6"/>
     </row>
-    <row r="604" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:5" ht="89.25" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>1</v>
       </c>
@@ -20085,7 +19689,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>2</v>
       </c>
@@ -20102,7 +19706,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>3</v>
       </c>
@@ -20119,7 +19723,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>4</v>
       </c>
@@ -20136,7 +19740,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>5</v>
       </c>
@@ -20153,7 +19757,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>6</v>
       </c>
@@ -20170,7 +19774,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A610" s="2">
         <v>7</v>
       </c>
@@ -20187,7 +19791,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A611" s="2">
         <v>8</v>
       </c>
@@ -20204,7 +19808,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A612" s="2">
         <v>9</v>
       </c>
@@ -20221,7 +19825,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A613" s="2">
         <v>10</v>
       </c>
@@ -20238,7 +19842,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A614" s="2">
         <v>11</v>
       </c>
@@ -20255,7 +19859,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A615" s="2">
         <v>12</v>
       </c>
@@ -20272,7 +19876,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
         <v>2179</v>
       </c>
@@ -20281,7 +19885,7 @@
       <c r="D616" s="5"/>
       <c r="E616" s="6"/>
     </row>
-    <row r="617" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A617" s="2">
         <v>1</v>
       </c>
@@ -20298,7 +19902,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="618" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A618" s="2">
         <v>2</v>
       </c>
@@ -20315,7 +19919,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="619" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A619" s="2">
         <v>3</v>
       </c>
@@ -20332,7 +19936,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="620" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A620" s="2">
         <v>4</v>
       </c>
@@ -20349,7 +19953,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="621" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A621" s="2">
         <v>5</v>
       </c>
@@ -20366,7 +19970,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="622" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A622" s="2">
         <v>6</v>
       </c>
@@ -20383,7 +19987,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="623" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A623" s="2">
         <v>7</v>
       </c>
@@ -20400,7 +20004,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="624" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A624" s="2">
         <v>8</v>
       </c>
@@ -20417,7 +20021,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="625" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A625" s="2">
         <v>9</v>
       </c>
@@ -20434,7 +20038,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="626" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A626" s="2">
         <v>10</v>
       </c>
@@ -20451,7 +20055,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="627" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A627" s="2">
         <v>11</v>
       </c>
@@ -20468,7 +20072,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="628" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A628" s="2">
         <v>12</v>
       </c>
@@ -20485,7 +20089,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="629" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A629" s="2">
         <v>13</v>
       </c>
@@ -20502,7 +20106,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="630" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A630" s="2">
         <v>14</v>
       </c>
@@ -20519,7 +20123,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="631" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A631" s="2">
         <v>15</v>
       </c>
@@ -20536,7 +20140,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="632" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A632" s="2">
         <v>16</v>
       </c>
@@ -20553,7 +20157,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="633" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="4" t="s">
         <v>2244</v>
       </c>
@@ -20562,7 +20166,7 @@
       <c r="D633" s="5"/>
       <c r="E633" s="6"/>
     </row>
-    <row r="634" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A634" s="2">
         <v>1</v>
       </c>
@@ -20579,7 +20183,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="635" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A635" s="2">
         <v>2</v>
       </c>
@@ -20596,7 +20200,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="636" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A636" s="2">
         <v>3</v>
       </c>
@@ -20613,7 +20217,7 @@
         <v>952153333</v>
       </c>
     </row>
-    <row r="637" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A637" s="2">
         <v>4</v>
       </c>
@@ -20630,7 +20234,7 @@
         <v>950303292</v>
       </c>
     </row>
-    <row r="638" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A638" s="2">
         <v>5</v>
       </c>
@@ -20647,7 +20251,7 @@
         <v>988723346</v>
       </c>
     </row>
-    <row r="639" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A639" s="2">
         <v>6</v>
       </c>
@@ -20662,7 +20266,7 @@
       </c>
       <c r="E639" s="3"/>
     </row>
-    <row r="640" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A640" s="2">
         <v>7</v>
       </c>
@@ -20679,7 +20283,7 @@
         <v>662726468</v>
       </c>
     </row>
-    <row r="641" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A641" s="2">
         <v>8</v>
       </c>
@@ -20696,7 +20300,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="642" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A642" s="2">
         <v>9</v>
       </c>
@@ -20713,7 +20317,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="643" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A643" s="2">
         <v>10</v>
       </c>
@@ -20730,7 +20334,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="644" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A644" s="2">
         <v>11</v>
       </c>
@@ -20747,7 +20351,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="645" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A645" s="2">
         <v>12</v>
       </c>
@@ -20764,7 +20368,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="646" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A646" s="2">
         <v>13</v>
       </c>
@@ -20781,7 +20385,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="647" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A647" s="2">
         <v>14</v>
       </c>
@@ -20798,7 +20402,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="648" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A648" s="2">
         <v>15</v>
       </c>
@@ -20815,7 +20419,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="649" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A649" s="2">
         <v>16</v>
       </c>
@@ -20832,7 +20436,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="650" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="4" t="s">
         <v>2303</v>
       </c>
@@ -20841,7 +20445,7 @@
       <c r="D650" s="5"/>
       <c r="E650" s="6"/>
     </row>
-    <row r="651" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A651" s="2">
         <v>1</v>
       </c>
@@ -20858,7 +20462,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="652" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A652" s="2">
         <v>2</v>
       </c>
@@ -20875,7 +20479,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="653" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A653" s="2">
         <v>3</v>
       </c>
@@ -20888,7 +20492,7 @@
       <c r="D653" s="3"/>
       <c r="E653" s="3"/>
     </row>
-    <row r="654" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A654" s="2">
         <v>4</v>
       </c>
@@ -20905,7 +20509,7 @@
         <v>2317</v>
       </c>
     </row>
-    <row r="655" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A655" s="2">
         <v>5</v>
       </c>
@@ -20922,7 +20526,7 @@
         <v>954287049</v>
       </c>
     </row>
-    <row r="656" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A656" s="2">
         <v>6</v>
       </c>
@@ -20939,7 +20543,7 @@
         <v>665681853</v>
       </c>
     </row>
-    <row r="657" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A657" s="2">
         <v>7</v>
       </c>
@@ -20956,7 +20560,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="658" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A658" s="2">
         <v>8</v>
       </c>
@@ -20973,7 +20577,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="659" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A659" s="2">
         <v>9</v>
       </c>
@@ -20990,7 +20594,7 @@
         <v>2335</v>
       </c>
     </row>
-    <row r="660" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A660" s="2">
         <v>10</v>
       </c>
@@ -21007,7 +20611,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="661" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A661" s="2">
         <v>11</v>
       </c>
@@ -21024,7 +20628,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="662" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A662" s="2">
         <v>12</v>
       </c>
@@ -21041,7 +20645,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="663" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A663" s="2">
         <v>13</v>
       </c>
@@ -21058,7 +20662,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="664" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A664" s="2">
         <v>14</v>
       </c>
@@ -21075,7 +20679,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="665" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A665" s="2">
         <v>15</v>
       </c>
@@ -21092,7 +20696,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="666" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
         <v>2360</v>
       </c>
@@ -21101,7 +20705,7 @@
       <c r="D666" s="5"/>
       <c r="E666" s="6"/>
     </row>
-    <row r="667" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A667" s="2">
         <v>1</v>
       </c>
@@ -21118,7 +20722,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="668" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A668" s="2">
         <v>2</v>
       </c>
@@ -21135,7 +20739,7 @@
         <v>2368</v>
       </c>
     </row>
-    <row r="669" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A669" s="2">
         <v>3</v>
       </c>
@@ -21152,7 +20756,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="670" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A670" s="2">
         <v>4</v>
       </c>
@@ -21169,7 +20773,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="671" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A671" s="2">
         <v>5</v>
       </c>
@@ -21186,7 +20790,7 @@
         <v>985666208</v>
       </c>
     </row>
-    <row r="672" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A672" s="2">
         <v>6</v>
       </c>
@@ -21203,7 +20807,7 @@
         <v>2383</v>
       </c>
     </row>
-    <row r="673" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A673" s="2">
         <v>7</v>
       </c>
@@ -21220,7 +20824,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="674" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A674" s="2">
         <v>8</v>
       </c>
@@ -21237,7 +20841,7 @@
         <v>2391</v>
       </c>
     </row>
-    <row r="675" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A675" s="2">
         <v>9</v>
       </c>
@@ -21254,7 +20858,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="676" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A676" s="2">
         <v>10</v>
       </c>
@@ -21271,7 +20875,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="677" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A677" s="2">
         <v>11</v>
       </c>
@@ -21288,7 +20892,7 @@
         <v>2403</v>
       </c>
     </row>
-    <row r="678" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A678" s="2">
         <v>12</v>
       </c>
@@ -21305,7 +20909,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="679" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A679" s="2">
         <v>13</v>
       </c>
@@ -21322,7 +20926,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="680" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A680" s="2">
         <v>14</v>
       </c>
@@ -21339,7 +20943,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="681" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A681" s="2">
         <v>15</v>
       </c>
@@ -21356,7 +20960,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="682" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A682" s="2">
         <v>16</v>
       </c>
@@ -21373,7 +20977,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="683" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A683" s="2">
         <v>17</v>
       </c>
@@ -21390,7 +20994,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="684" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A684" s="2">
         <v>18</v>
       </c>
@@ -21407,7 +21011,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="685" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A685" s="2">
         <v>19</v>
       </c>
@@ -21424,7 +21028,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="686" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A686" s="2">
         <v>20</v>
       </c>
@@ -21441,7 +21045,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="687" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A687" s="2">
         <v>21</v>
       </c>
@@ -21458,7 +21062,7 @@
         <v>2443</v>
       </c>
     </row>
-    <row r="688" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A688" s="2">
         <v>22</v>
       </c>
@@ -21475,7 +21079,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="689" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A689" s="2">
         <v>23</v>
       </c>
@@ -21492,7 +21096,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="690" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
         <v>2452</v>
       </c>
@@ -21501,7 +21105,7 @@
       <c r="D690" s="5"/>
       <c r="E690" s="6"/>
     </row>
-    <row r="691" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A691" s="2">
         <v>1</v>
       </c>
@@ -21518,7 +21122,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="692" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A692" s="2">
         <v>2</v>
       </c>
@@ -21535,7 +21139,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="693" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A693" s="2">
         <v>3</v>
       </c>
@@ -21552,7 +21156,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="694" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A694" s="2">
         <v>4</v>
       </c>
@@ -21569,7 +21173,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="695" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A695" s="2">
         <v>5</v>
       </c>
@@ -21586,7 +21190,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="696" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A696" s="2">
         <v>6</v>
       </c>
@@ -21603,7 +21207,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="697" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A697" s="2">
         <v>7</v>
       </c>
@@ -21620,7 +21224,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="698" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A698" s="2">
         <v>8</v>
       </c>
@@ -21637,7 +21241,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="699" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A699" s="2">
         <v>9</v>
       </c>
@@ -21654,7 +21258,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="700" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A700" s="2">
         <v>10</v>
       </c>
@@ -21671,7 +21275,7 @@
         <v>2492</v>
       </c>
     </row>
-    <row r="701" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A701" s="2">
         <v>11</v>
       </c>
@@ -21688,7 +21292,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="702" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A702" s="2">
         <v>12</v>
       </c>
@@ -21705,7 +21309,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="703" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A703" s="2">
         <v>13</v>
       </c>
@@ -21722,7 +21326,7 @@
         <v>2504</v>
       </c>
     </row>
-    <row r="704" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A704" s="2">
         <v>14</v>
       </c>
@@ -21739,7 +21343,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="705" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A705" s="2">
         <v>15</v>
       </c>
@@ -21756,7 +21360,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="706" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A706" s="2">
         <v>16</v>
       </c>
@@ -21773,7 +21377,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="707" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A707" s="2">
         <v>17</v>
       </c>
@@ -21790,7 +21394,7 @@
         <v>953958295</v>
       </c>
     </row>
-    <row r="708" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A708" s="2">
         <v>18</v>
       </c>
@@ -21807,7 +21411,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="709" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A709" s="2">
         <v>19</v>
       </c>
@@ -21824,7 +21428,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="710" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A710" s="2">
         <v>20</v>
       </c>
@@ -21841,7 +21445,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A711" s="2">
         <v>21</v>
       </c>
@@ -21858,7 +21462,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="712" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="4" t="s">
         <v>2536</v>
       </c>
@@ -21867,7 +21471,7 @@
       <c r="D712" s="5"/>
       <c r="E712" s="6"/>
     </row>
-    <row r="713" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A713" s="2">
         <v>1</v>
       </c>
@@ -21884,7 +21488,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="714" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A714" s="2">
         <v>2</v>
       </c>
@@ -21901,7 +21505,7 @@
         <v>2544</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A715" s="2">
         <v>3</v>
       </c>
@@ -21918,7 +21522,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A716" s="2">
         <v>4</v>
       </c>
@@ -21935,7 +21539,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="717" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A717" s="2">
         <v>5</v>
       </c>
@@ -21952,7 +21556,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A718" s="2">
         <v>6</v>
       </c>
@@ -21969,7 +21573,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A719" s="2">
         <v>7</v>
       </c>
@@ -21986,7 +21590,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="720" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A720" s="2">
         <v>8</v>
       </c>
@@ -22003,7 +21607,7 @@
         <v>2568</v>
       </c>
     </row>
-    <row r="721" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A721" s="2">
         <v>9</v>
       </c>
@@ -22020,7 +21624,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="722" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A722" s="2">
         <v>10</v>
       </c>
@@ -22037,7 +21641,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="723" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A723" s="2">
         <v>11</v>
       </c>
@@ -22054,7 +21658,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="724" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A724" s="2">
         <v>12</v>
       </c>
@@ -22071,7 +21675,7 @@
         <v>2584</v>
       </c>
     </row>
-    <row r="725" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="4" t="s">
         <v>2585</v>
       </c>
@@ -22080,7 +21684,7 @@
       <c r="D725" s="5"/>
       <c r="E725" s="6"/>
     </row>
-    <row r="726" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A726" s="2">
         <v>1</v>
       </c>
@@ -22097,7 +21701,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="727" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A727" s="2">
         <v>2</v>
       </c>
@@ -22114,7 +21718,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="728" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A728" s="2">
         <v>3</v>
       </c>
@@ -22131,7 +21735,7 @@
         <v>2597</v>
       </c>
     </row>
-    <row r="729" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="4" t="s">
         <v>2598</v>
       </c>
@@ -22140,7 +21744,7 @@
       <c r="D729" s="5"/>
       <c r="E729" s="6"/>
     </row>
-    <row r="730" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A730" s="2">
         <v>1</v>
       </c>
@@ -22157,7 +21761,7 @@
         <v>2602</v>
       </c>
     </row>
-    <row r="731" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A731" s="2">
         <v>2</v>
       </c>
@@ -22174,7 +21778,7 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="732" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A732" s="2">
         <v>3</v>
       </c>
@@ -22191,7 +21795,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="733" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A733" s="2">
         <v>4</v>
       </c>
@@ -22208,7 +21812,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="734" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A734" s="2">
         <v>5</v>
       </c>
@@ -22225,7 +21829,7 @@
         <v>2618</v>
       </c>
     </row>
-    <row r="735" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A735" s="2">
         <v>6</v>
       </c>
@@ -22242,7 +21846,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="736" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A736" s="2">
         <v>7</v>
       </c>
@@ -22259,7 +21863,7 @@
         <v>2626</v>
       </c>
     </row>
-    <row r="737" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A737" s="2">
         <v>8</v>
       </c>
@@ -22276,7 +21880,7 @@
         <v>2630</v>
       </c>
     </row>
-    <row r="738" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A738" s="2">
         <v>9</v>
       </c>
@@ -22293,7 +21897,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="739" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A739" s="2">
         <v>10</v>
       </c>
@@ -22310,7 +21914,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="740" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A740" s="2">
         <v>11</v>
       </c>
@@ -22327,7 +21931,7 @@
         <v>2642</v>
       </c>
     </row>
-    <row r="741" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A741" s="2">
         <v>12</v>
       </c>
@@ -22344,7 +21948,7 @@
         <v>2646</v>
       </c>
     </row>
-    <row r="742" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A742" s="2">
         <v>13</v>
       </c>
@@ -22361,7 +21965,7 @@
         <v>2650</v>
       </c>
     </row>
-    <row r="743" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="4" t="s">
         <v>2651</v>
       </c>
@@ -22370,7 +21974,7 @@
       <c r="D743" s="5"/>
       <c r="E743" s="6"/>
     </row>
-    <row r="744" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A744" s="2">
         <v>1</v>
       </c>
@@ -22387,7 +21991,7 @@
         <v>2655</v>
       </c>
     </row>
-    <row r="745" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A745" s="2">
         <v>2</v>
       </c>
@@ -22404,7 +22008,7 @@
         <v>2659</v>
       </c>
     </row>
-    <row r="746" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A746" s="2">
         <v>3</v>
       </c>
@@ -22421,7 +22025,7 @@
         <v>2663</v>
       </c>
     </row>
-    <row r="747" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A747" s="2">
         <v>4</v>
       </c>
@@ -22438,7 +22042,7 @@
         <v>2667</v>
       </c>
     </row>
-    <row r="748" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A748" s="2">
         <v>5</v>
       </c>
@@ -22455,7 +22059,7 @@
         <v>2671</v>
       </c>
     </row>
-    <row r="749" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A749" s="2">
         <v>6</v>
       </c>
@@ -22472,7 +22076,7 @@
         <v>2675</v>
       </c>
     </row>
-    <row r="750" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A750" s="2">
         <v>7</v>
       </c>
@@ -22489,7 +22093,7 @@
         <v>2679</v>
       </c>
     </row>
-    <row r="751" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A751" s="2">
         <v>8</v>
       </c>
@@ -22506,7 +22110,7 @@
         <v>2683</v>
       </c>
     </row>
-    <row r="752" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A752" s="2">
         <v>9</v>
       </c>
@@ -22523,7 +22127,7 @@
         <v>2687</v>
       </c>
     </row>
-    <row r="753" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A753" s="2">
         <v>10</v>
       </c>
@@ -22540,7 +22144,7 @@
         <v>2691</v>
       </c>
     </row>
-    <row r="754" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="4" t="s">
         <v>2692</v>
       </c>
@@ -22549,7 +22153,7 @@
       <c r="D754" s="5"/>
       <c r="E754" s="6"/>
     </row>
-    <row r="755" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A755" s="2">
         <v>1</v>
       </c>
@@ -22566,7 +22170,7 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="756" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A756" s="2">
         <v>2</v>
       </c>
@@ -22583,7 +22187,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="757" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="4" t="s">
         <v>2701</v>
       </c>
@@ -22592,7 +22196,7 @@
       <c r="D757" s="5"/>
       <c r="E757" s="6"/>
     </row>
-    <row r="758" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A758" s="2">
         <v>1</v>
       </c>
@@ -22609,7 +22213,7 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="759" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A759" s="2">
         <v>2</v>
       </c>
@@ -22626,7 +22230,7 @@
         <v>2709</v>
       </c>
     </row>
-    <row r="760" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A760" s="2">
         <v>3</v>
       </c>
@@ -22643,7 +22247,7 @@
         <v>2713</v>
       </c>
     </row>
-    <row r="761" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A761" s="2">
         <v>4</v>
       </c>
@@ -22660,7 +22264,7 @@
         <v>2717</v>
       </c>
     </row>
-    <row r="762" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A762" s="2">
         <v>5</v>
       </c>
@@ -22677,7 +22281,7 @@
         <v>2721</v>
       </c>
     </row>
-    <row r="763" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A763" s="2">
         <v>6</v>
       </c>
@@ -22694,7 +22298,7 @@
         <v>2725</v>
       </c>
     </row>
-    <row r="764" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A764" s="2">
         <v>7</v>
       </c>
@@ -22711,7 +22315,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="765" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A765" s="2">
         <v>8</v>
       </c>
@@ -22728,7 +22332,7 @@
         <v>2733</v>
       </c>
     </row>
-    <row r="766" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A766" s="2">
         <v>9</v>
       </c>
@@ -22745,7 +22349,7 @@
         <v>2737</v>
       </c>
     </row>
-    <row r="767" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A767" s="2">
         <v>10</v>
       </c>
@@ -22762,7 +22366,7 @@
         <v>2741</v>
       </c>
     </row>
-    <row r="768" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A768" s="2">
         <v>11</v>
       </c>
@@ -22779,7 +22383,7 @@
         <v>2745</v>
       </c>
     </row>
-    <row r="769" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A769" s="2">
         <v>12</v>
       </c>
@@ -22796,7 +22400,7 @@
         <v>2749</v>
       </c>
     </row>
-    <row r="770" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A770" s="2">
         <v>13</v>
       </c>
@@ -22813,7 +22417,7 @@
         <v>2753</v>
       </c>
     </row>
-    <row r="771" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A771" s="2">
         <v>14</v>
       </c>
@@ -22830,7 +22434,7 @@
         <v>2757</v>
       </c>
     </row>
-    <row r="772" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A772" s="2">
         <v>15</v>
       </c>
@@ -22847,7 +22451,7 @@
         <v>2761</v>
       </c>
     </row>
-    <row r="773" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A773" s="2">
         <v>16</v>
       </c>
@@ -22864,7 +22468,7 @@
         <v>2765</v>
       </c>
     </row>
-    <row r="774" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A774" s="2">
         <v>17</v>
       </c>
@@ -22881,7 +22485,7 @@
         <v>2769</v>
       </c>
     </row>
-    <row r="775" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A775" s="2">
         <v>18</v>
       </c>
@@ -22898,7 +22502,7 @@
         <v>2773</v>
       </c>
     </row>
-    <row r="776" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A776" s="2">
         <v>19</v>
       </c>
@@ -22915,7 +22519,7 @@
         <v>2777</v>
       </c>
     </row>
-    <row r="777" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A777" s="2">
         <v>20</v>
       </c>
@@ -22932,7 +22536,7 @@
         <v>2781</v>
       </c>
     </row>
-    <row r="778" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A778" s="2">
         <v>21</v>
       </c>
@@ -22949,7 +22553,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="779" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A779" s="2">
         <v>22</v>
       </c>
@@ -22966,7 +22570,7 @@
         <v>2789</v>
       </c>
     </row>
-    <row r="780" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A780" s="2">
         <v>23</v>
       </c>
@@ -22983,7 +22587,7 @@
         <v>2793</v>
       </c>
     </row>
-    <row r="781" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A781" s="2">
         <v>24</v>
       </c>
@@ -23000,7 +22604,7 @@
         <v>2797</v>
       </c>
     </row>
-    <row r="782" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A782" s="2">
         <v>25</v>
       </c>
@@ -23017,7 +22621,7 @@
         <v>2801</v>
       </c>
     </row>
-    <row r="783" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A783" s="2">
         <v>26</v>
       </c>
@@ -23034,7 +22638,7 @@
         <v>2805</v>
       </c>
     </row>
-    <row r="784" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A784" s="2">
         <v>27</v>
       </c>
@@ -23051,7 +22655,7 @@
         <v>2809</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A785" s="2">
         <v>28</v>
       </c>
@@ -23068,7 +22672,7 @@
         <v>2813</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A786" s="2">
         <v>29</v>
       </c>
@@ -23085,7 +22689,7 @@
         <v>2817</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A787" s="2">
         <v>30</v>
       </c>
@@ -23102,7 +22706,7 @@
         <v>2821</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A788" s="2">
         <v>31</v>
       </c>
@@ -23119,7 +22723,7 @@
         <v>2825</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A789" s="2">
         <v>32</v>
       </c>
@@ -23136,7 +22740,7 @@
         <v>2829</v>
       </c>
     </row>
-    <row r="790" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A790" s="2">
         <v>33</v>
       </c>
@@ -23153,7 +22757,7 @@
         <v>2833</v>
       </c>
     </row>
-    <row r="791" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="4" t="s">
         <v>2834</v>
       </c>
@@ -23162,7 +22766,7 @@
       <c r="D791" s="5"/>
       <c r="E791" s="6"/>
     </row>
-    <row r="792" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A792" s="2">
         <v>1</v>
       </c>
@@ -23177,7 +22781,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="793" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A793" s="2">
         <v>2</v>
       </c>
@@ -23194,7 +22798,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A794" s="2">
         <v>3</v>
       </c>
@@ -23211,7 +22815,7 @@
         <v>2845</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A795" s="2">
         <v>4</v>
       </c>
@@ -23228,7 +22832,7 @@
         <v>380960612540</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A796" s="2">
         <v>5</v>
       </c>
@@ -23245,7 +22849,7 @@
         <v>2852</v>
       </c>
     </row>
-    <row r="797" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A797" s="2">
         <v>6</v>
       </c>
@@ -23262,7 +22866,7 @@
         <v>2856</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A798" s="2">
         <v>7</v>
       </c>
@@ -23279,7 +22883,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A799" s="2">
         <v>8</v>
       </c>
@@ -23296,7 +22900,7 @@
         <v>380954148826</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A800" s="2">
         <v>9</v>
       </c>
@@ -23313,7 +22917,7 @@
         <v>2867</v>
       </c>
     </row>
-    <row r="801" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A801" s="2">
         <v>10</v>
       </c>
@@ -23330,7 +22934,7 @@
         <v>2871</v>
       </c>
     </row>
-    <row r="802" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A802" s="2">
         <v>11</v>
       </c>
@@ -23347,7 +22951,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="803" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A803" s="2">
         <v>12</v>
       </c>
@@ -23364,7 +22968,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="804" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A804" s="2">
         <v>13</v>
       </c>
@@ -23381,7 +22985,7 @@
         <v>380975463859</v>
       </c>
     </row>
-    <row r="805" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A805" s="2">
         <v>14</v>
       </c>
@@ -23398,7 +23002,7 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="806" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="4" t="s">
         <v>2886</v>
       </c>
@@ -23407,7 +23011,7 @@
       <c r="D806" s="5"/>
       <c r="E806" s="6"/>
     </row>
-    <row r="807" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A807" s="2">
         <v>1</v>
       </c>
@@ -23424,7 +23028,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="808" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A808" s="2">
         <v>2</v>
       </c>
@@ -23441,7 +23045,7 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="809" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="4" t="s">
         <v>2895</v>
       </c>
@@ -23450,7 +23054,7 @@
       <c r="D809" s="5"/>
       <c r="E809" s="6"/>
     </row>
-    <row r="810" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A810" s="2">
         <v>1</v>
       </c>
@@ -23467,7 +23071,7 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="811" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="4" t="s">
         <v>2900</v>
       </c>
@@ -23476,7 +23080,7 @@
       <c r="D811" s="5"/>
       <c r="E811" s="6"/>
     </row>
-    <row r="812" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A812" s="2">
         <v>1</v>
       </c>
@@ -23491,7 +23095,7 @@
       </c>
       <c r="E812" s="3"/>
     </row>
-    <row r="813" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A813" s="2">
         <v>2</v>
       </c>
@@ -23506,7 +23110,7 @@
       </c>
       <c r="E813" s="3"/>
     </row>
-    <row r="814" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:5" ht="51" x14ac:dyDescent="0.25">
       <c r="A814" s="2">
         <v>3</v>
       </c>
@@ -23523,7 +23127,7 @@
         <v>2908</v>
       </c>
     </row>
-    <row r="815" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A815" s="2">
         <v>4</v>
       </c>
@@ -23540,7 +23144,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="816" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A816" s="2">
         <v>5</v>
       </c>
@@ -23557,7 +23161,7 @@
         <v>2916</v>
       </c>
     </row>
-    <row r="817" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A817" s="2">
         <v>6</v>
       </c>
@@ -23574,7 +23178,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="818" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A818" s="2">
         <v>7</v>
       </c>
@@ -23591,7 +23195,7 @@
         <v>2924</v>
       </c>
     </row>
-    <row r="819" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A819" s="2">
         <v>8</v>
       </c>
@@ -23608,7 +23212,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="820" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A820" s="2">
         <v>9</v>
       </c>
@@ -23625,7 +23229,7 @@
         <v>2932</v>
       </c>
     </row>
-    <row r="821" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A821" s="2">
         <v>10</v>
       </c>
@@ -23642,7 +23246,7 @@
         <v>2936</v>
       </c>
     </row>
-    <row r="822" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A822" s="2">
         <v>11</v>
       </c>
@@ -23657,7 +23261,7 @@
       </c>
       <c r="E822" s="3"/>
     </row>
-    <row r="823" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A823" s="2">
         <v>12</v>
       </c>
@@ -23674,7 +23278,7 @@
         <v>2943</v>
       </c>
     </row>
-    <row r="824" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A824" s="2">
         <v>13</v>
       </c>
@@ -23691,7 +23295,7 @@
         <v>2947</v>
       </c>
     </row>
-    <row r="825" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A825" s="2">
         <v>14</v>
       </c>
@@ -23708,7 +23312,7 @@
         <v>2951</v>
       </c>
     </row>
-    <row r="826" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A826" s="2">
         <v>15</v>
       </c>
@@ -23725,7 +23329,7 @@
         <v>2955</v>
       </c>
     </row>
-    <row r="827" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A827" s="2">
         <v>16</v>
       </c>
@@ -23742,7 +23346,7 @@
         <v>2959</v>
       </c>
     </row>
-    <row r="828" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A828" s="2">
         <v>17</v>
       </c>
@@ -23759,7 +23363,7 @@
         <v>2963</v>
       </c>
     </row>
-    <row r="829" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A829" s="2">
         <v>18</v>
       </c>
@@ -23776,7 +23380,7 @@
         <v>2967</v>
       </c>
     </row>
-    <row r="830" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A830" s="2">
         <v>19</v>
       </c>
@@ -23793,7 +23397,7 @@
         <v>2971</v>
       </c>
     </row>
-    <row r="831" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A831" s="2">
         <v>20</v>
       </c>
@@ -23810,7 +23414,7 @@
         <v>2975</v>
       </c>
     </row>
-    <row r="832" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A832" s="2">
         <v>21</v>
       </c>
@@ -23827,7 +23431,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="833" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A833" s="2">
         <v>22</v>
       </c>
@@ -23844,7 +23448,7 @@
         <v>2982</v>
       </c>
     </row>
-    <row r="834" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A834" s="2">
         <v>23</v>
       </c>
@@ -23859,7 +23463,7 @@
       </c>
       <c r="E834" s="3"/>
     </row>
-    <row r="835" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A835" s="2">
         <v>24</v>
       </c>
@@ -23876,7 +23480,7 @@
         <v>2989</v>
       </c>
     </row>
-    <row r="836" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A836" s="2">
         <v>25</v>
       </c>
@@ -23891,7 +23495,7 @@
       </c>
       <c r="E836" s="3"/>
     </row>
-    <row r="837" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" s="2">
         <v>26</v>
       </c>
@@ -23908,7 +23512,7 @@
         <v>991630446</v>
       </c>
     </row>
-    <row r="838" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A838" s="2">
         <v>27</v>
       </c>
@@ -23925,7 +23529,7 @@
         <v>2999</v>
       </c>
     </row>
-    <row r="839" spans="1:5" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A839" s="2">
         <v>28</v>
       </c>
@@ -23942,7 +23546,7 @@
         <v>3003</v>
       </c>
     </row>
-    <row r="840" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A840" s="2">
         <v>29</v>
       </c>
@@ -23959,7 +23563,7 @@
         <v>3007</v>
       </c>
     </row>
-    <row r="841" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A841" s="2">
         <v>30</v>
       </c>
@@ -23976,7 +23580,7 @@
         <v>3011</v>
       </c>
     </row>
-    <row r="842" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A842" s="2">
         <v>31</v>
       </c>
@@ -23993,7 +23597,7 @@
         <v>3015</v>
       </c>
     </row>
-    <row r="843" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A843" s="2">
         <v>32</v>
       </c>
@@ -24010,7 +23614,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="844" spans="1:5" ht="88.2" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A844" s="2">
         <v>33</v>
       </c>
@@ -24027,7 +23631,7 @@
         <v>3023</v>
       </c>
     </row>
-    <row r="845" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A845" s="2">
         <v>34</v>
       </c>
@@ -24044,7 +23648,7 @@
         <v>3027</v>
       </c>
     </row>
-    <row r="846" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A846" s="2">
         <v>35</v>
       </c>
@@ -24061,7 +23665,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="847" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A847" s="2">
         <v>36</v>
       </c>
@@ -24078,7 +23682,7 @@
         <v>3035</v>
       </c>
     </row>
-    <row r="848" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A848" s="2">
         <v>37</v>
       </c>
@@ -24095,7 +23699,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="849" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A849" s="2">
         <v>38</v>
       </c>
@@ -24112,7 +23716,7 @@
         <v>3043</v>
       </c>
     </row>
-    <row r="850" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="4" t="s">
         <v>3044</v>
       </c>
@@ -24121,7 +23725,7 @@
       <c r="D850" s="5"/>
       <c r="E850" s="6"/>
     </row>
-    <row r="851" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A851" s="2">
         <v>1</v>
       </c>
@@ -24136,7 +23740,7 @@
       </c>
       <c r="E851" s="3"/>
     </row>
-    <row r="852" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A852" s="2">
         <v>2</v>
       </c>
@@ -24151,7 +23755,7 @@
       </c>
       <c r="E852" s="3"/>
     </row>
-    <row r="853" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="4" t="s">
         <v>3049</v>
       </c>
@@ -24160,7 +23764,7 @@
       <c r="D853" s="5"/>
       <c r="E853" s="6"/>
     </row>
-    <row r="854" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A854" s="2">
         <v>1</v>
       </c>
@@ -24177,7 +23781,7 @@
         <v>3053</v>
       </c>
     </row>
-    <row r="855" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A855" s="2">
         <v>2</v>
       </c>
@@ -24194,7 +23798,7 @@
         <v>3057</v>
       </c>
     </row>
-    <row r="856" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:5" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A856" s="2">
         <v>3</v>
       </c>
@@ -24211,7 +23815,7 @@
         <v>3061</v>
       </c>
     </row>
-    <row r="857" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A857" s="2">
         <v>4</v>
       </c>
@@ -24228,7 +23832,7 @@
         <v>3065</v>
       </c>
     </row>
-    <row r="858" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A858" s="2">
         <v>5</v>
       </c>
@@ -24243,7 +23847,7 @@
       </c>
       <c r="E858" s="3"/>
     </row>
-    <row r="859" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A859" s="2">
         <v>6</v>
       </c>
@@ -24260,7 +23864,7 @@
         <v>3072</v>
       </c>
     </row>
-    <row r="860" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A860" s="2">
         <v>7</v>
       </c>
@@ -24277,7 +23881,7 @@
         <v>3076</v>
       </c>
     </row>
-    <row r="861" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="4" t="s">
         <v>3077</v>
       </c>
@@ -24286,7 +23890,7 @@
       <c r="D861" s="5"/>
       <c r="E861" s="6"/>
     </row>
-    <row r="862" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A862" s="2">
         <v>1</v>
       </c>
@@ -24303,7 +23907,7 @@
         <v>380967913142</v>
       </c>
     </row>
-    <row r="863" spans="1:5" ht="63" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A863" s="2">
         <v>2</v>
       </c>
@@ -24318,7 +23922,7 @@
       </c>
       <c r="E863" s="3"/>
     </row>
-    <row r="864" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A864" s="2">
         <v>3</v>
       </c>
@@ -24335,7 +23939,7 @@
         <v>3087</v>
       </c>
     </row>
-    <row r="865" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A865" s="2">
         <v>4</v>
       </c>
@@ -24352,7 +23956,7 @@
         <v>3091</v>
       </c>
     </row>
-    <row r="866" spans="1:5" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:5" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="4" t="s">
         <v>3092</v>
       </c>
@@ -24361,7 +23965,7 @@
       <c r="D866" s="5"/>
       <c r="E866" s="6"/>
     </row>
-    <row r="867" spans="1:5" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:5" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A867" s="2">
         <v>1</v>
       </c>
@@ -24380,6 +23984,51 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="A853:E853"/>
+    <mergeCell ref="A861:E861"/>
+    <mergeCell ref="A866:E866"/>
+    <mergeCell ref="A757:E757"/>
+    <mergeCell ref="A791:E791"/>
+    <mergeCell ref="A806:E806"/>
+    <mergeCell ref="A809:E809"/>
+    <mergeCell ref="A811:E811"/>
+    <mergeCell ref="A850:E850"/>
+    <mergeCell ref="A754:E754"/>
+    <mergeCell ref="A601:E601"/>
+    <mergeCell ref="A603:E603"/>
+    <mergeCell ref="A616:E616"/>
+    <mergeCell ref="A633:E633"/>
+    <mergeCell ref="A650:E650"/>
+    <mergeCell ref="A666:E666"/>
+    <mergeCell ref="A690:E690"/>
+    <mergeCell ref="A712:E712"/>
+    <mergeCell ref="A725:E725"/>
+    <mergeCell ref="A729:E729"/>
+    <mergeCell ref="A743:E743"/>
+    <mergeCell ref="A588:E588"/>
+    <mergeCell ref="A413:E413"/>
+    <mergeCell ref="A415:E415"/>
+    <mergeCell ref="A425:E425"/>
+    <mergeCell ref="A439:E439"/>
+    <mergeCell ref="A447:E447"/>
+    <mergeCell ref="A479:E479"/>
+    <mergeCell ref="A501:E501"/>
+    <mergeCell ref="A510:E510"/>
+    <mergeCell ref="A537:E537"/>
+    <mergeCell ref="A567:E567"/>
+    <mergeCell ref="A573:E573"/>
+    <mergeCell ref="A407:E407"/>
+    <mergeCell ref="A230:E230"/>
+    <mergeCell ref="A239:E239"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A276:E276"/>
+    <mergeCell ref="A278:E278"/>
+    <mergeCell ref="A308:E308"/>
+    <mergeCell ref="A310:E310"/>
+    <mergeCell ref="A312:E312"/>
+    <mergeCell ref="A343:E343"/>
+    <mergeCell ref="A371:E371"/>
+    <mergeCell ref="A386:E386"/>
     <mergeCell ref="A226:E226"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A5:E5"/>
@@ -24392,51 +24041,6 @@
     <mergeCell ref="A167:E167"/>
     <mergeCell ref="A187:E187"/>
     <mergeCell ref="A205:E205"/>
-    <mergeCell ref="A407:E407"/>
-    <mergeCell ref="A230:E230"/>
-    <mergeCell ref="A239:E239"/>
-    <mergeCell ref="A269:E269"/>
-    <mergeCell ref="A276:E276"/>
-    <mergeCell ref="A278:E278"/>
-    <mergeCell ref="A308:E308"/>
-    <mergeCell ref="A310:E310"/>
-    <mergeCell ref="A312:E312"/>
-    <mergeCell ref="A343:E343"/>
-    <mergeCell ref="A371:E371"/>
-    <mergeCell ref="A386:E386"/>
-    <mergeCell ref="A588:E588"/>
-    <mergeCell ref="A413:E413"/>
-    <mergeCell ref="A415:E415"/>
-    <mergeCell ref="A425:E425"/>
-    <mergeCell ref="A439:E439"/>
-    <mergeCell ref="A447:E447"/>
-    <mergeCell ref="A479:E479"/>
-    <mergeCell ref="A501:E501"/>
-    <mergeCell ref="A510:E510"/>
-    <mergeCell ref="A537:E537"/>
-    <mergeCell ref="A567:E567"/>
-    <mergeCell ref="A573:E573"/>
-    <mergeCell ref="A754:E754"/>
-    <mergeCell ref="A601:E601"/>
-    <mergeCell ref="A603:E603"/>
-    <mergeCell ref="A616:E616"/>
-    <mergeCell ref="A633:E633"/>
-    <mergeCell ref="A650:E650"/>
-    <mergeCell ref="A666:E666"/>
-    <mergeCell ref="A690:E690"/>
-    <mergeCell ref="A712:E712"/>
-    <mergeCell ref="A725:E725"/>
-    <mergeCell ref="A729:E729"/>
-    <mergeCell ref="A743:E743"/>
-    <mergeCell ref="A853:E853"/>
-    <mergeCell ref="A861:E861"/>
-    <mergeCell ref="A866:E866"/>
-    <mergeCell ref="A757:E757"/>
-    <mergeCell ref="A791:E791"/>
-    <mergeCell ref="A806:E806"/>
-    <mergeCell ref="A809:E809"/>
-    <mergeCell ref="A811:E811"/>
-    <mergeCell ref="A850:E850"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24447,18 +24051,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0507FB11-FAE0-49B1-B2B5-38A96C134111}">
   <dimension ref="A1:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection sqref="A1:D103"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="342" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3097</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3098</v>
       </c>
@@ -24466,7 +24070,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3099</v>
       </c>
@@ -24474,7 +24078,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3100</v>
       </c>
@@ -24482,7 +24086,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>3101</v>
       </c>
@@ -24490,7 +24094,7 @@
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3102</v>
       </c>
@@ -24498,7 +24102,7 @@
       <c r="C6" s="5"/>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3103</v>
       </c>
@@ -24506,7 +24110,7 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>3104</v>
       </c>
@@ -24514,7 +24118,7 @@
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>3105</v>
       </c>
@@ -24522,7 +24126,7 @@
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -24536,7 +24140,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -24550,7 +24154,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>3</v>
       </c>
@@ -24564,7 +24168,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>4</v>
       </c>
@@ -24578,7 +24182,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5</v>
       </c>
@@ -24592,7 +24196,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="102" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>6</v>
       </c>
@@ -24606,7 +24210,7 @@
         <v>3119</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>7</v>
       </c>
@@ -24620,7 +24224,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>8</v>
       </c>
@@ -24634,7 +24238,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="75.599999999999994" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>9</v>
       </c>
@@ -24648,7 +24252,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -24662,7 +24266,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>11</v>
       </c>
@@ -24676,7 +24280,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>12</v>
       </c>
@@ -24690,7 +24294,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>13</v>
       </c>
@@ -24704,7 +24308,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>14</v>
       </c>
@@ -24718,7 +24322,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>15</v>
       </c>
@@ -24732,7 +24336,7 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="63" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>16</v>
       </c>
@@ -24746,937 +24350,500 @@
         <v>3108</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>3140</v>
-      </c>
+    <row r="26" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>3141</v>
-      </c>
+    <row r="27" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>3142</v>
-      </c>
+    <row r="28" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>3143</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>3144</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>3146</v>
-      </c>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>3147</v>
-      </c>
+    <row r="31" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>3148</v>
-      </c>
+    <row r="32" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>3149</v>
-      </c>
+    <row r="33" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>3150</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>3151</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>2</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>3152</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>3153</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>3</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>3154</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>3155</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>4</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>3156</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>3157</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>5</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>3158</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>3159</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
-        <v>6</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>3160</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>3161</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>7</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>3162</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>3163</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
-        <v>8</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>3164</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3165</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
-        <v>9</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>3166</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>3167</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>10</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>3168</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>3169</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>11</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>3170</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>3171</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>3172</v>
-      </c>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3173</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>3174</v>
-      </c>
-      <c r="D46" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
-        <v>2</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>3175</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>3176</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>3</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>3177</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>3178</v>
-      </c>
-      <c r="D48" s="3" t="s">
-        <v>3179</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>3180</v>
-      </c>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>3181</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>3182</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
-        <v>2</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>3183</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>3184</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>3185</v>
-      </c>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>1</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>3186</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>3187</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>2</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>3188</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>3189</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>3</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>3190</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>3191</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="4" t="s">
-        <v>3192</v>
-      </c>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>3193</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>3194</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>2</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>3196</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>3197</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>3195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="4" t="s">
-        <v>3198</v>
-      </c>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>3199</v>
-      </c>
+    <row r="60" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>3200</v>
-      </c>
+    <row r="61" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>3201</v>
-      </c>
+    <row r="62" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="4" t="s">
-        <v>3202</v>
-      </c>
+    <row r="63" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>3203</v>
-      </c>
+    <row r="64" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
-        <v>3204</v>
-      </c>
+    <row r="65" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
     </row>
-    <row r="66" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>3205</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>3206</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>2</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>3207</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>3208</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>3</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>3209</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>3210</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>4</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>3212</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>3213</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>5</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>3214</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>3215</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>6</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>3216</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>3217</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>7</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>3218</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>3219</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>8</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>3220</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>3221</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>9</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>3222</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>3223</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>10</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>3224</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>3225</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>3211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
-        <v>3226</v>
-      </c>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
       <c r="D76" s="6"/>
     </row>
-    <row r="77" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>1</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>3227</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>2</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>3229</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>3230</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>3</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>3231</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>3232</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>4</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>3233</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>3234</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="88.2" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>5</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>3235</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>3236</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>6</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>3238</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>3239</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
-        <v>7</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>3240</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>3241</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
-        <v>8</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>3242</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>3243</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
-        <v>9</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>3244</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>3245</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>10</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>3246</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>3247</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>11</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>3248</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>3249</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="4" t="s">
-        <v>3250</v>
-      </c>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
     </row>
-    <row r="89" spans="1:4" ht="75.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>1</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>3251</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>3252</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>3119</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="4" t="s">
-        <v>3253</v>
-      </c>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
       <c r="D90" s="6"/>
     </row>
-    <row r="91" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>1</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>3254</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>3255</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>3108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>3256</v>
-      </c>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
       <c r="D92" s="6"/>
     </row>
-    <row r="93" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>3257</v>
-      </c>
+    <row r="93" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
       <c r="D93" s="6"/>
     </row>
-    <row r="94" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>1</v>
-      </c>
-      <c r="B94" s="3" t="s">
-        <v>3258</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>3259</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>3261</v>
-      </c>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
       <c r="D95" s="6"/>
     </row>
-    <row r="96" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>1</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>3262</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>3263</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>2</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>3264</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>3265</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="63" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>3</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>3266</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>3267</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="50.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>4</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>3268</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>3269</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>3260</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="4" t="s">
-        <v>3270</v>
-      </c>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
       <c r="D100" s="6"/>
     </row>
-    <row r="101" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="4" t="s">
-        <v>3271</v>
-      </c>
+    <row r="101" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
       <c r="D101" s="6"/>
     </row>
-    <row r="102" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="4" t="s">
-        <v>3272</v>
-      </c>
+    <row r="102" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
       <c r="D102" s="6"/>
     </row>
-    <row r="103" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
-        <v>3273</v>
-      </c>
+    <row r="103" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A93:D93"/>
-    <mergeCell ref="A95:D95"/>
-    <mergeCell ref="A100:D100"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A61:D61"/>
+    <mergeCell ref="A62:D62"/>
     <mergeCell ref="A103:D103"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A65:D65"/>
@@ -25684,30 +24851,11 @@
     <mergeCell ref="A88:D88"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A92:D92"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A61:D61"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A95:D95"/>
+    <mergeCell ref="A100:D100"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="A102:D102"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
